--- a/database/industries/darou/defara/product/monthly.xlsx
+++ b/database/industries/darou/defara/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\defara\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBC4D95-F395-45C7-85E7-0A31AFB99318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F49AD8-5F44-4487-B99E-28A072DA0ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4044" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>

--- a/database/industries/darou/defara/product/monthly.xlsx
+++ b/database/industries/darou/defara/product/monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\defara\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F49AD8-5F44-4487-B99E-28A072DA0ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24DC1CD-0637-421C-B2BA-68EC1BB77976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="92">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دفارا-داروسازی‌ فارابی‌</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>سایر</t>
@@ -1462,14 +1462,14 @@
       <c r="I11" s="11">
         <v>0</v>
       </c>
-      <c r="J11" s="11">
-        <v>0</v>
+      <c r="J11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>57</v>
+      <c r="L11" s="11">
+        <v>0</v>
       </c>
       <c r="M11" s="11">
         <v>0</v>
@@ -1498,20 +1498,20 @@
       <c r="U11" s="11">
         <v>0</v>
       </c>
-      <c r="V11" s="11">
-        <v>0</v>
+      <c r="V11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="X11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>57</v>
+      <c r="X11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>0</v>
       </c>
       <c r="AA11" s="11">
         <v>0</v>
@@ -1534,8 +1534,8 @@
       <c r="AG11" s="11">
         <v>0</v>
       </c>
-      <c r="AH11" s="11">
-        <v>0</v>
+      <c r="AH11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI11" s="11" t="s">
         <v>57</v>
@@ -1552,8 +1552,8 @@
       <c r="AM11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN11" s="11" t="s">
-        <v>57</v>
+      <c r="AN11" s="11">
+        <v>0</v>
       </c>
       <c r="AO11" s="11">
         <v>0</v>
@@ -1570,8 +1570,8 @@
       <c r="AS11" s="11">
         <v>0</v>
       </c>
-      <c r="AT11" s="11">
-        <v>0</v>
+      <c r="AT11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU11" s="11" t="s">
         <v>57</v>
@@ -1607,154 +1607,154 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>32210</v>
+        <v>29257</v>
       </c>
       <c r="F12" s="13">
-        <v>29257</v>
+        <v>30765</v>
       </c>
       <c r="G12" s="13">
-        <v>30765</v>
+        <v>35473</v>
       </c>
       <c r="H12" s="13">
-        <v>35473</v>
+        <v>39937</v>
       </c>
       <c r="I12" s="13">
-        <v>39937</v>
+        <v>32009</v>
       </c>
       <c r="J12" s="13">
-        <v>32009</v>
+        <v>17600</v>
       </c>
       <c r="K12" s="13">
-        <v>17600</v>
+        <v>30894</v>
       </c>
       <c r="L12" s="13">
-        <v>30894</v>
+        <v>37803</v>
       </c>
       <c r="M12" s="13">
-        <v>37803</v>
+        <v>50391</v>
       </c>
       <c r="N12" s="13">
-        <v>50391</v>
+        <v>52510</v>
       </c>
       <c r="O12" s="13">
-        <v>52510</v>
+        <v>58946</v>
       </c>
       <c r="P12" s="13">
-        <v>58946</v>
+        <v>67454</v>
       </c>
       <c r="Q12" s="13">
-        <v>67454</v>
+        <v>64177</v>
       </c>
       <c r="R12" s="13">
-        <v>64177</v>
+        <v>64178</v>
       </c>
       <c r="S12" s="13">
-        <v>64178</v>
+        <v>67117</v>
       </c>
       <c r="T12" s="13">
-        <v>67117</v>
+        <v>73765</v>
       </c>
       <c r="U12" s="13">
-        <v>73765</v>
+        <v>48994</v>
       </c>
       <c r="V12" s="13">
-        <v>48994</v>
+        <v>26229</v>
       </c>
       <c r="W12" s="13">
-        <v>26229</v>
+        <v>50510</v>
       </c>
       <c r="X12" s="13">
-        <v>50510</v>
+        <v>59094</v>
       </c>
       <c r="Y12" s="13">
-        <v>59094</v>
+        <v>69769</v>
       </c>
       <c r="Z12" s="13">
-        <v>69769</v>
+        <v>54390</v>
       </c>
       <c r="AA12" s="13">
-        <v>54390</v>
+        <v>59202</v>
       </c>
       <c r="AB12" s="13">
-        <v>59202</v>
+        <v>34421</v>
       </c>
       <c r="AC12" s="13">
-        <v>34421</v>
+        <v>42934</v>
       </c>
       <c r="AD12" s="13">
-        <v>42934</v>
+        <v>38795</v>
       </c>
       <c r="AE12" s="13">
-        <v>38795</v>
+        <v>21659</v>
       </c>
       <c r="AF12" s="13">
-        <v>21659</v>
+        <v>8006</v>
       </c>
       <c r="AG12" s="13">
-        <v>8006</v>
+        <v>4596</v>
       </c>
       <c r="AH12" s="13">
-        <v>4596</v>
+        <v>5716</v>
       </c>
       <c r="AI12" s="13">
-        <v>5716</v>
+        <v>13483</v>
       </c>
       <c r="AJ12" s="13">
-        <v>13483</v>
+        <v>22569</v>
       </c>
       <c r="AK12" s="13">
-        <v>22569</v>
+        <v>16466</v>
       </c>
       <c r="AL12" s="13">
-        <v>16466</v>
+        <v>28723</v>
       </c>
       <c r="AM12" s="13">
-        <v>28723</v>
+        <v>32726</v>
       </c>
       <c r="AN12" s="13">
-        <v>32726</v>
+        <v>40314</v>
       </c>
       <c r="AO12" s="13">
-        <v>40314</v>
+        <v>34181</v>
       </c>
       <c r="AP12" s="13">
-        <v>34181</v>
+        <v>42715</v>
       </c>
       <c r="AQ12" s="13">
-        <v>42715</v>
+        <v>43997</v>
       </c>
       <c r="AR12" s="13">
-        <v>43997</v>
+        <v>27554</v>
       </c>
       <c r="AS12" s="13">
         <v>27554</v>
       </c>
       <c r="AT12" s="13">
-        <v>27554</v>
+        <v>30941</v>
       </c>
       <c r="AU12" s="13">
-        <v>30941</v>
+        <v>24774</v>
       </c>
       <c r="AV12" s="13">
-        <v>24774</v>
+        <v>21190</v>
       </c>
       <c r="AW12" s="13">
-        <v>21190</v>
+        <v>23734</v>
       </c>
       <c r="AX12" s="13">
-        <v>23734</v>
+        <v>22931</v>
       </c>
       <c r="AY12" s="13">
-        <v>22931</v>
+        <v>19964</v>
       </c>
       <c r="AZ12" s="13">
-        <v>19964</v>
+        <v>15005</v>
       </c>
       <c r="BA12" s="13">
-        <v>15005</v>
+        <v>24567</v>
       </c>
       <c r="BB12" s="13">
-        <v>24567</v>
+        <v>37580</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1766,130 +1766,130 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>63907</v>
+        <v>63924</v>
       </c>
       <c r="F13" s="11">
-        <v>63924</v>
+        <v>73270</v>
       </c>
       <c r="G13" s="11">
-        <v>73270</v>
+        <v>51555</v>
       </c>
       <c r="H13" s="11">
-        <v>51555</v>
+        <v>82249</v>
       </c>
       <c r="I13" s="11">
-        <v>82249</v>
+        <v>55196</v>
       </c>
       <c r="J13" s="11">
-        <v>55196</v>
+        <v>32416</v>
       </c>
       <c r="K13" s="11">
-        <v>32416</v>
+        <v>63874</v>
       </c>
       <c r="L13" s="11">
-        <v>63874</v>
+        <v>62064</v>
       </c>
       <c r="M13" s="11">
-        <v>62064</v>
+        <v>56357</v>
       </c>
       <c r="N13" s="11">
-        <v>56357</v>
+        <v>70066</v>
       </c>
       <c r="O13" s="11">
-        <v>70066</v>
+        <v>100583</v>
       </c>
       <c r="P13" s="11">
-        <v>100583</v>
+        <v>107659</v>
       </c>
       <c r="Q13" s="11">
-        <v>107659</v>
+        <v>114001</v>
       </c>
       <c r="R13" s="11">
-        <v>114001</v>
+        <v>92642</v>
       </c>
       <c r="S13" s="11">
-        <v>92642</v>
+        <v>108843</v>
       </c>
       <c r="T13" s="11">
-        <v>108843</v>
+        <v>98065</v>
       </c>
       <c r="U13" s="11">
-        <v>98065</v>
+        <v>79387</v>
       </c>
       <c r="V13" s="11">
-        <v>79387</v>
+        <v>54714</v>
       </c>
       <c r="W13" s="11">
-        <v>54714</v>
+        <v>115495</v>
       </c>
       <c r="X13" s="11">
-        <v>115495</v>
+        <v>119675</v>
       </c>
       <c r="Y13" s="11">
-        <v>119675</v>
+        <v>84597</v>
       </c>
       <c r="Z13" s="11">
-        <v>84597</v>
+        <v>79255</v>
       </c>
       <c r="AA13" s="11">
-        <v>79255</v>
+        <v>60829</v>
       </c>
       <c r="AB13" s="11">
-        <v>60829</v>
+        <v>54612</v>
       </c>
       <c r="AC13" s="11">
-        <v>54612</v>
+        <v>70923</v>
       </c>
       <c r="AD13" s="11">
-        <v>70923</v>
+        <v>84016</v>
       </c>
       <c r="AE13" s="11">
-        <v>84016</v>
+        <v>57658</v>
       </c>
       <c r="AF13" s="11">
-        <v>57658</v>
+        <v>61619</v>
       </c>
       <c r="AG13" s="11">
-        <v>61619</v>
+        <v>30315</v>
       </c>
       <c r="AH13" s="11">
-        <v>30315</v>
+        <v>32340</v>
       </c>
       <c r="AI13" s="11">
-        <v>32340</v>
+        <v>79791</v>
       </c>
       <c r="AJ13" s="11">
-        <v>79791</v>
+        <v>91438</v>
       </c>
       <c r="AK13" s="11">
-        <v>91438</v>
+        <v>88456</v>
       </c>
       <c r="AL13" s="11">
-        <v>88456</v>
+        <v>64738</v>
       </c>
       <c r="AM13" s="11">
-        <v>64738</v>
+        <v>92253</v>
       </c>
       <c r="AN13" s="11">
-        <v>92253</v>
+        <v>87312</v>
       </c>
       <c r="AO13" s="11">
-        <v>87312</v>
+        <v>84616</v>
       </c>
       <c r="AP13" s="11">
-        <v>84616</v>
+        <v>82283</v>
       </c>
       <c r="AQ13" s="11">
-        <v>82283</v>
+        <v>84526</v>
       </c>
       <c r="AR13" s="11">
-        <v>84526</v>
+        <v>35173</v>
       </c>
       <c r="AS13" s="11">
         <v>35173</v>
       </c>
-      <c r="AT13" s="11">
-        <v>35173</v>
+      <c r="AT13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU13" s="11" t="s">
         <v>57</v>
@@ -1925,154 +1925,154 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>1892</v>
+        <v>2207</v>
       </c>
       <c r="F14" s="13">
-        <v>2207</v>
+        <v>2057</v>
       </c>
       <c r="G14" s="13">
-        <v>2057</v>
+        <v>2222</v>
       </c>
       <c r="H14" s="13">
-        <v>2222</v>
+        <v>1606</v>
       </c>
       <c r="I14" s="13">
-        <v>1606</v>
+        <v>1313</v>
       </c>
       <c r="J14" s="13">
-        <v>1313</v>
+        <v>639</v>
       </c>
       <c r="K14" s="13">
-        <v>639</v>
+        <v>1658</v>
       </c>
       <c r="L14" s="13">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="M14" s="13">
-        <v>1668</v>
+        <v>2458</v>
       </c>
       <c r="N14" s="13">
-        <v>2458</v>
+        <v>2556</v>
       </c>
       <c r="O14" s="13">
-        <v>2556</v>
+        <v>2711</v>
       </c>
       <c r="P14" s="13">
-        <v>2711</v>
+        <v>2202</v>
       </c>
       <c r="Q14" s="13">
-        <v>2202</v>
+        <v>1812</v>
       </c>
       <c r="R14" s="13">
-        <v>1812</v>
+        <v>3115</v>
       </c>
       <c r="S14" s="13">
-        <v>3115</v>
+        <v>2750</v>
       </c>
       <c r="T14" s="13">
-        <v>2750</v>
+        <v>2443</v>
       </c>
       <c r="U14" s="13">
-        <v>2443</v>
+        <v>2426</v>
       </c>
       <c r="V14" s="13">
-        <v>2426</v>
+        <v>1630</v>
       </c>
       <c r="W14" s="13">
-        <v>1630</v>
+        <v>2146</v>
       </c>
       <c r="X14" s="13">
-        <v>2146</v>
+        <v>2030</v>
       </c>
       <c r="Y14" s="13">
-        <v>2030</v>
+        <v>2770</v>
       </c>
       <c r="Z14" s="13">
-        <v>2770</v>
+        <v>2187</v>
       </c>
       <c r="AA14" s="13">
-        <v>2187</v>
+        <v>2206</v>
       </c>
       <c r="AB14" s="13">
-        <v>2206</v>
+        <v>1717</v>
       </c>
       <c r="AC14" s="13">
-        <v>1717</v>
+        <v>877</v>
       </c>
       <c r="AD14" s="13">
-        <v>877</v>
+        <v>529</v>
       </c>
       <c r="AE14" s="13">
-        <v>529</v>
+        <v>39</v>
       </c>
       <c r="AF14" s="13">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="13">
         <v>0</v>
       </c>
       <c r="AH14" s="13">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AI14" s="13">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="AJ14" s="13">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="AK14" s="13">
         <v>40</v>
       </c>
       <c r="AL14" s="13">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AM14" s="13">
-        <v>95</v>
+        <v>291</v>
       </c>
       <c r="AN14" s="13">
-        <v>291</v>
+        <v>87</v>
       </c>
       <c r="AO14" s="13">
-        <v>87</v>
+        <v>803</v>
       </c>
       <c r="AP14" s="13">
-        <v>803</v>
+        <v>836</v>
       </c>
       <c r="AQ14" s="13">
-        <v>836</v>
+        <v>1126</v>
       </c>
       <c r="AR14" s="13">
-        <v>1126</v>
+        <v>1493</v>
       </c>
       <c r="AS14" s="13">
         <v>1493</v>
       </c>
       <c r="AT14" s="13">
-        <v>1493</v>
+        <v>1402</v>
       </c>
       <c r="AU14" s="13">
-        <v>1402</v>
+        <v>1519</v>
       </c>
       <c r="AV14" s="13">
-        <v>1519</v>
+        <v>1497</v>
       </c>
       <c r="AW14" s="13">
-        <v>1497</v>
+        <v>1447</v>
       </c>
       <c r="AX14" s="13">
-        <v>1447</v>
+        <v>876</v>
       </c>
       <c r="AY14" s="13">
-        <v>876</v>
+        <v>1339</v>
       </c>
       <c r="AZ14" s="13">
-        <v>1339</v>
+        <v>1421</v>
       </c>
       <c r="BA14" s="13">
-        <v>1421</v>
+        <v>3253</v>
       </c>
       <c r="BB14" s="13">
-        <v>3253</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2125,17 +2125,17 @@
       <c r="R15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="S15" s="11" t="s">
-        <v>57</v>
+      <c r="S15" s="11">
+        <v>523</v>
       </c>
       <c r="T15" s="11">
-        <v>523</v>
+        <v>23758</v>
       </c>
       <c r="U15" s="11">
-        <v>23758</v>
-      </c>
-      <c r="V15" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W15" s="11" t="s">
         <v>57</v>
@@ -2302,11 +2302,11 @@
       <c r="X16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z16" s="13">
-        <v>0</v>
+      <c r="Y16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA16" s="13" t="s">
         <v>57</v>
@@ -2470,8 +2470,8 @@
       <c r="AA17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB17" s="11" t="s">
-        <v>57</v>
+      <c r="AB17" s="11">
+        <v>0</v>
       </c>
       <c r="AC17" s="11">
         <v>0</v>
@@ -2488,8 +2488,8 @@
       <c r="AG17" s="11">
         <v>0</v>
       </c>
-      <c r="AH17" s="11">
-        <v>0</v>
+      <c r="AH17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI17" s="11" t="s">
         <v>57</v>
@@ -2506,8 +2506,8 @@
       <c r="AM17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN17" s="11" t="s">
-        <v>57</v>
+      <c r="AN17" s="11">
+        <v>0</v>
       </c>
       <c r="AO17" s="11">
         <v>0</v>
@@ -2524,8 +2524,8 @@
       <c r="AS17" s="11">
         <v>0</v>
       </c>
-      <c r="AT17" s="11">
-        <v>0</v>
+      <c r="AT17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU17" s="11" t="s">
         <v>57</v>
@@ -2629,8 +2629,8 @@
       <c r="AA18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB18" s="13" t="s">
-        <v>57</v>
+      <c r="AB18" s="13">
+        <v>0</v>
       </c>
       <c r="AC18" s="13">
         <v>0</v>
@@ -2647,8 +2647,8 @@
       <c r="AG18" s="13">
         <v>0</v>
       </c>
-      <c r="AH18" s="13">
-        <v>0</v>
+      <c r="AH18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI18" s="13" t="s">
         <v>57</v>
@@ -2665,8 +2665,8 @@
       <c r="AM18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN18" s="13" t="s">
-        <v>57</v>
+      <c r="AN18" s="13">
+        <v>0</v>
       </c>
       <c r="AO18" s="13">
         <v>0</v>
@@ -2683,8 +2683,8 @@
       <c r="AS18" s="13">
         <v>0</v>
       </c>
-      <c r="AT18" s="13">
-        <v>0</v>
+      <c r="AT18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU18" s="13" t="s">
         <v>57</v>
@@ -2788,8 +2788,8 @@
       <c r="AA19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB19" s="11" t="s">
-        <v>57</v>
+      <c r="AB19" s="11">
+        <v>0</v>
       </c>
       <c r="AC19" s="11">
         <v>0</v>
@@ -2806,8 +2806,8 @@
       <c r="AG19" s="11">
         <v>0</v>
       </c>
-      <c r="AH19" s="11">
-        <v>0</v>
+      <c r="AH19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI19" s="11" t="s">
         <v>57</v>
@@ -2824,8 +2824,8 @@
       <c r="AM19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN19" s="11" t="s">
-        <v>57</v>
+      <c r="AN19" s="11">
+        <v>0</v>
       </c>
       <c r="AO19" s="11">
         <v>0</v>
@@ -2842,8 +2842,8 @@
       <c r="AS19" s="11">
         <v>0</v>
       </c>
-      <c r="AT19" s="11">
-        <v>0</v>
+      <c r="AT19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU19" s="11" t="s">
         <v>57</v>
@@ -3001,32 +3001,32 @@
       <c r="AS20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT20" s="13" t="s">
-        <v>57</v>
+      <c r="AT20" s="13">
+        <v>43080</v>
       </c>
       <c r="AU20" s="13">
-        <v>43080</v>
+        <v>43635</v>
       </c>
       <c r="AV20" s="13">
-        <v>43635</v>
+        <v>46160</v>
       </c>
       <c r="AW20" s="13">
-        <v>46160</v>
+        <v>45272</v>
       </c>
       <c r="AX20" s="13">
-        <v>45272</v>
+        <v>18813</v>
       </c>
       <c r="AY20" s="13">
-        <v>18813</v>
+        <v>11878</v>
       </c>
       <c r="AZ20" s="13">
-        <v>11878</v>
+        <v>40715</v>
       </c>
       <c r="BA20" s="13">
-        <v>40715</v>
+        <v>75894</v>
       </c>
       <c r="BB20" s="13">
-        <v>75894</v>
+        <v>62406</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3220,8 +3220,8 @@
       <c r="AT22" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU22" s="11" t="s">
-        <v>57</v>
+      <c r="AU22" s="11">
+        <v>0</v>
       </c>
       <c r="AV22" s="11">
         <v>0</v>
@@ -3229,8 +3229,8 @@
       <c r="AW22" s="11">
         <v>0</v>
       </c>
-      <c r="AX22" s="11">
-        <v>0</v>
+      <c r="AX22" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AY22" s="11" t="s">
         <v>57</v>
@@ -3238,8 +3238,8 @@
       <c r="AZ22" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BA22" s="11" t="s">
-        <v>57</v>
+      <c r="BA22" s="11">
+        <v>0</v>
       </c>
       <c r="BB22" s="11" t="s">
         <v>57</v>
@@ -3409,7 +3409,7 @@
         <v>63</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
@@ -3490,8 +3490,8 @@
       <c r="AD24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE24" s="11" t="s">
-        <v>57</v>
+      <c r="AE24" s="11">
+        <v>0</v>
       </c>
       <c r="AF24" s="11">
         <v>0</v>
@@ -3499,8 +3499,8 @@
       <c r="AG24" s="11">
         <v>0</v>
       </c>
-      <c r="AH24" s="11">
-        <v>0</v>
+      <c r="AH24" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI24" s="11" t="s">
         <v>57</v>
@@ -3538,8 +3538,8 @@
       <c r="AT24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU24" s="11" t="s">
-        <v>57</v>
+      <c r="AU24" s="11">
+        <v>0</v>
       </c>
       <c r="AV24" s="11">
         <v>0</v>
@@ -3547,8 +3547,8 @@
       <c r="AW24" s="11">
         <v>0</v>
       </c>
-      <c r="AX24" s="11">
-        <v>0</v>
+      <c r="AX24" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AY24" s="11" t="s">
         <v>57</v>
@@ -3556,8 +3556,8 @@
       <c r="AZ24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BA24" s="11" t="s">
-        <v>57</v>
+      <c r="BA24" s="11">
+        <v>0</v>
       </c>
       <c r="BB24" s="11" t="s">
         <v>57</v>
@@ -3631,8 +3631,8 @@
       <c r="X25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y25" s="13" t="s">
-        <v>57</v>
+      <c r="Y25" s="13">
+        <v>0</v>
       </c>
       <c r="Z25" s="13">
         <v>0</v>
@@ -3658,8 +3658,8 @@
       <c r="AG25" s="13">
         <v>0</v>
       </c>
-      <c r="AH25" s="13">
-        <v>0</v>
+      <c r="AH25" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI25" s="13" t="s">
         <v>57</v>
@@ -3796,8 +3796,8 @@
       <c r="Z26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AA26" s="11" t="s">
-        <v>57</v>
+      <c r="AA26" s="11">
+        <v>0</v>
       </c>
       <c r="AB26" s="11">
         <v>0</v>
@@ -3817,8 +3817,8 @@
       <c r="AG26" s="11">
         <v>0</v>
       </c>
-      <c r="AH26" s="11">
-        <v>0</v>
+      <c r="AH26" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI26" s="11" t="s">
         <v>57</v>
@@ -3958,8 +3958,8 @@
       <c r="AA27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB27" s="13" t="s">
-        <v>57</v>
+      <c r="AB27" s="13">
+        <v>0</v>
       </c>
       <c r="AC27" s="13">
         <v>0</v>
@@ -3976,8 +3976,8 @@
       <c r="AG27" s="13">
         <v>0</v>
       </c>
-      <c r="AH27" s="13">
-        <v>0</v>
+      <c r="AH27" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI27" s="13" t="s">
         <v>57</v>
@@ -4106,8 +4106,8 @@
       <c r="X28" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y28" s="15" t="s">
-        <v>57</v>
+      <c r="Y28" s="15">
+        <v>0</v>
       </c>
       <c r="Z28" s="15">
         <v>0</v>
@@ -4204,154 +4204,154 @@
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17">
-        <v>98009</v>
+        <v>95388</v>
       </c>
       <c r="F29" s="17">
-        <v>95388</v>
+        <v>106092</v>
       </c>
       <c r="G29" s="17">
-        <v>106092</v>
+        <v>89250</v>
       </c>
       <c r="H29" s="17">
-        <v>89250</v>
+        <v>123792</v>
       </c>
       <c r="I29" s="17">
-        <v>123792</v>
+        <v>88518</v>
       </c>
       <c r="J29" s="17">
-        <v>88518</v>
+        <v>50655</v>
       </c>
       <c r="K29" s="17">
-        <v>50655</v>
+        <v>96426</v>
       </c>
       <c r="L29" s="17">
-        <v>96426</v>
+        <v>101535</v>
       </c>
       <c r="M29" s="17">
-        <v>101535</v>
+        <v>109206</v>
       </c>
       <c r="N29" s="17">
-        <v>109206</v>
+        <v>125132</v>
       </c>
       <c r="O29" s="17">
-        <v>125132</v>
+        <v>162240</v>
       </c>
       <c r="P29" s="17">
-        <v>162240</v>
+        <v>177315</v>
       </c>
       <c r="Q29" s="17">
-        <v>177315</v>
+        <v>179990</v>
       </c>
       <c r="R29" s="17">
-        <v>179990</v>
+        <v>159935</v>
       </c>
       <c r="S29" s="17">
-        <v>159935</v>
+        <v>179233</v>
       </c>
       <c r="T29" s="17">
-        <v>179233</v>
+        <v>198031</v>
       </c>
       <c r="U29" s="17">
-        <v>198031</v>
+        <v>130807</v>
       </c>
       <c r="V29" s="17">
-        <v>130807</v>
+        <v>82573</v>
       </c>
       <c r="W29" s="17">
-        <v>82573</v>
+        <v>168151</v>
       </c>
       <c r="X29" s="17">
-        <v>168151</v>
+        <v>180799</v>
       </c>
       <c r="Y29" s="17">
-        <v>180799</v>
+        <v>157136</v>
       </c>
       <c r="Z29" s="17">
-        <v>157136</v>
+        <v>135832</v>
       </c>
       <c r="AA29" s="17">
-        <v>135832</v>
+        <v>122237</v>
       </c>
       <c r="AB29" s="17">
-        <v>122237</v>
+        <v>90750</v>
       </c>
       <c r="AC29" s="17">
-        <v>90750</v>
+        <v>114734</v>
       </c>
       <c r="AD29" s="17">
-        <v>114734</v>
+        <v>123340</v>
       </c>
       <c r="AE29" s="17">
-        <v>123340</v>
+        <v>79356</v>
       </c>
       <c r="AF29" s="17">
-        <v>79356</v>
+        <v>69625</v>
       </c>
       <c r="AG29" s="17">
-        <v>69625</v>
+        <v>34911</v>
       </c>
       <c r="AH29" s="17">
-        <v>34911</v>
+        <v>38103</v>
       </c>
       <c r="AI29" s="17">
-        <v>38103</v>
+        <v>93441</v>
       </c>
       <c r="AJ29" s="17">
-        <v>93441</v>
+        <v>114047</v>
       </c>
       <c r="AK29" s="17">
-        <v>114047</v>
+        <v>104962</v>
       </c>
       <c r="AL29" s="17">
-        <v>104962</v>
+        <v>93556</v>
       </c>
       <c r="AM29" s="17">
-        <v>93556</v>
+        <v>125270</v>
       </c>
       <c r="AN29" s="17">
-        <v>125270</v>
+        <v>127713</v>
       </c>
       <c r="AO29" s="17">
-        <v>127713</v>
+        <v>119600</v>
       </c>
       <c r="AP29" s="17">
-        <v>119600</v>
+        <v>125834</v>
       </c>
       <c r="AQ29" s="17">
-        <v>125834</v>
+        <v>129649</v>
       </c>
       <c r="AR29" s="17">
-        <v>129649</v>
+        <v>64220</v>
       </c>
       <c r="AS29" s="17">
         <v>64220</v>
       </c>
       <c r="AT29" s="17">
-        <v>64220</v>
+        <v>75423</v>
       </c>
       <c r="AU29" s="17">
-        <v>75423</v>
+        <v>69928</v>
       </c>
       <c r="AV29" s="17">
-        <v>69928</v>
+        <v>68847</v>
       </c>
       <c r="AW29" s="17">
-        <v>68847</v>
+        <v>70453</v>
       </c>
       <c r="AX29" s="17">
-        <v>70453</v>
+        <v>42620</v>
       </c>
       <c r="AY29" s="17">
-        <v>42620</v>
+        <v>33181</v>
       </c>
       <c r="AZ29" s="17">
-        <v>33181</v>
+        <v>57141</v>
       </c>
       <c r="BA29" s="17">
-        <v>57141</v>
+        <v>103714</v>
       </c>
       <c r="BB29" s="17">
-        <v>103714</v>
+        <v>103264</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -4809,16 +4809,16 @@
         <v>0</v>
       </c>
       <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
         <v>69</v>
       </c>
+      <c r="J36" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="K36" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L36" s="11" t="s">
-        <v>57</v>
+      <c r="L36" s="11">
+        <v>0</v>
       </c>
       <c r="M36" s="11">
         <v>0</v>
@@ -4847,20 +4847,20 @@
       <c r="U36" s="11">
         <v>0</v>
       </c>
-      <c r="V36" s="11">
-        <v>0</v>
+      <c r="V36" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W36" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="X36" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y36" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="11" t="s">
-        <v>57</v>
+      <c r="X36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z36" s="11">
+        <v>0</v>
       </c>
       <c r="AA36" s="11">
         <v>0</v>
@@ -4883,8 +4883,8 @@
       <c r="AG36" s="11">
         <v>0</v>
       </c>
-      <c r="AH36" s="11">
-        <v>0</v>
+      <c r="AH36" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI36" s="11" t="s">
         <v>57</v>
@@ -4901,8 +4901,8 @@
       <c r="AM36" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN36" s="11" t="s">
-        <v>57</v>
+      <c r="AN36" s="11">
+        <v>0</v>
       </c>
       <c r="AO36" s="11">
         <v>0</v>
@@ -4919,8 +4919,8 @@
       <c r="AS36" s="11">
         <v>0</v>
       </c>
-      <c r="AT36" s="11">
-        <v>0</v>
+      <c r="AT36" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU36" s="11" t="s">
         <v>57</v>
@@ -4956,154 +4956,154 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>31089</v>
+        <v>28320</v>
       </c>
       <c r="F37" s="13">
-        <v>28320</v>
+        <v>32728</v>
       </c>
       <c r="G37" s="13">
-        <v>32728</v>
+        <v>35773</v>
       </c>
       <c r="H37" s="13">
-        <v>35773</v>
+        <v>36887</v>
       </c>
       <c r="I37" s="13">
-        <v>36887</v>
+        <v>9863</v>
       </c>
       <c r="J37" s="13">
-        <v>9863</v>
+        <v>36746</v>
       </c>
       <c r="K37" s="13">
-        <v>36746</v>
+        <v>30970</v>
       </c>
       <c r="L37" s="13">
-        <v>30970</v>
+        <v>41078</v>
       </c>
       <c r="M37" s="13">
-        <v>41078</v>
+        <v>51612</v>
       </c>
       <c r="N37" s="13">
-        <v>51612</v>
+        <v>52955</v>
       </c>
       <c r="O37" s="13">
-        <v>52955</v>
+        <v>59361</v>
       </c>
       <c r="P37" s="13">
-        <v>59361</v>
+        <v>64096</v>
       </c>
       <c r="Q37" s="13">
-        <v>64096</v>
+        <v>64196</v>
       </c>
       <c r="R37" s="13">
-        <v>64196</v>
+        <v>65261</v>
       </c>
       <c r="S37" s="13">
-        <v>65261</v>
+        <v>68063</v>
       </c>
       <c r="T37" s="13">
-        <v>68063</v>
+        <v>72237</v>
       </c>
       <c r="U37" s="13">
-        <v>72237</v>
+        <v>17972</v>
       </c>
       <c r="V37" s="13">
-        <v>17972</v>
+        <v>50672</v>
       </c>
       <c r="W37" s="13">
-        <v>50672</v>
+        <v>50411</v>
       </c>
       <c r="X37" s="13">
-        <v>50411</v>
+        <v>63509</v>
       </c>
       <c r="Y37" s="13">
-        <v>63509</v>
+        <v>65245</v>
       </c>
       <c r="Z37" s="13">
-        <v>65245</v>
+        <v>57695</v>
       </c>
       <c r="AA37" s="13">
-        <v>57695</v>
+        <v>63126</v>
       </c>
       <c r="AB37" s="13">
-        <v>63126</v>
+        <v>32972</v>
       </c>
       <c r="AC37" s="13">
-        <v>32972</v>
+        <v>35690</v>
       </c>
       <c r="AD37" s="13">
-        <v>35690</v>
+        <v>31401</v>
       </c>
       <c r="AE37" s="13">
-        <v>31401</v>
+        <v>14855</v>
       </c>
       <c r="AF37" s="13">
-        <v>14855</v>
+        <v>3140</v>
       </c>
       <c r="AG37" s="13">
-        <v>3140</v>
+        <v>4400</v>
       </c>
       <c r="AH37" s="13">
-        <v>4400</v>
+        <v>22446</v>
       </c>
       <c r="AI37" s="13">
-        <v>22446</v>
+        <v>21716</v>
       </c>
       <c r="AJ37" s="13">
-        <v>21716</v>
+        <v>16413</v>
       </c>
       <c r="AK37" s="13">
-        <v>16413</v>
+        <v>20727</v>
       </c>
       <c r="AL37" s="13">
-        <v>20727</v>
+        <v>29546</v>
       </c>
       <c r="AM37" s="13">
-        <v>29546</v>
+        <v>35745</v>
       </c>
       <c r="AN37" s="13">
-        <v>35745</v>
+        <v>42369</v>
       </c>
       <c r="AO37" s="13">
-        <v>42369</v>
+        <v>34560</v>
       </c>
       <c r="AP37" s="13">
-        <v>34560</v>
+        <v>41305</v>
       </c>
       <c r="AQ37" s="13">
-        <v>41305</v>
+        <v>43580</v>
       </c>
       <c r="AR37" s="13">
-        <v>43580</v>
+        <v>15307</v>
       </c>
       <c r="AS37" s="13">
         <v>15307</v>
       </c>
       <c r="AT37" s="13">
-        <v>15307</v>
+        <v>30466</v>
       </c>
       <c r="AU37" s="13">
-        <v>30466</v>
+        <v>26539</v>
       </c>
       <c r="AV37" s="13">
-        <v>26539</v>
+        <v>29175</v>
       </c>
       <c r="AW37" s="13">
-        <v>29175</v>
+        <v>21771</v>
       </c>
       <c r="AX37" s="13">
-        <v>21771</v>
+        <v>17479</v>
       </c>
       <c r="AY37" s="13">
-        <v>17479</v>
+        <v>25124</v>
       </c>
       <c r="AZ37" s="13">
-        <v>25124</v>
+        <v>17776</v>
       </c>
       <c r="BA37" s="13">
-        <v>17776</v>
+        <v>25535</v>
       </c>
       <c r="BB37" s="13">
-        <v>25535</v>
+        <v>34254</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5115,130 +5115,130 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>64408</v>
+        <v>62819</v>
       </c>
       <c r="F38" s="11">
-        <v>62819</v>
+        <v>72260</v>
       </c>
       <c r="G38" s="11">
-        <v>72260</v>
+        <v>52795</v>
       </c>
       <c r="H38" s="11">
-        <v>52795</v>
+        <v>81283</v>
       </c>
       <c r="I38" s="11">
-        <v>81283</v>
+        <v>30897</v>
       </c>
       <c r="J38" s="11">
-        <v>30897</v>
+        <v>56271</v>
       </c>
       <c r="K38" s="11">
-        <v>56271</v>
+        <v>65524</v>
       </c>
       <c r="L38" s="11">
-        <v>65524</v>
+        <v>62680</v>
       </c>
       <c r="M38" s="11">
-        <v>62680</v>
+        <v>56357</v>
       </c>
       <c r="N38" s="11">
-        <v>56357</v>
+        <v>68678</v>
       </c>
       <c r="O38" s="11">
-        <v>68678</v>
+        <v>101650</v>
       </c>
       <c r="P38" s="11">
-        <v>101650</v>
+        <v>104503</v>
       </c>
       <c r="Q38" s="11">
-        <v>104503</v>
+        <v>116377</v>
       </c>
       <c r="R38" s="11">
-        <v>116377</v>
+        <v>93734</v>
       </c>
       <c r="S38" s="11">
-        <v>93734</v>
+        <v>106405</v>
       </c>
       <c r="T38" s="11">
-        <v>106405</v>
+        <v>88310</v>
       </c>
       <c r="U38" s="11">
-        <v>88310</v>
+        <v>39879</v>
       </c>
       <c r="V38" s="11">
-        <v>39879</v>
+        <v>90911</v>
       </c>
       <c r="W38" s="11">
-        <v>90911</v>
+        <v>113318</v>
       </c>
       <c r="X38" s="11">
-        <v>113318</v>
+        <v>124968</v>
       </c>
       <c r="Y38" s="11">
-        <v>124968</v>
+        <v>84807</v>
       </c>
       <c r="Z38" s="11">
-        <v>84807</v>
+        <v>79211</v>
       </c>
       <c r="AA38" s="11">
-        <v>79211</v>
+        <v>61836</v>
       </c>
       <c r="AB38" s="11">
-        <v>61836</v>
+        <v>52830</v>
       </c>
       <c r="AC38" s="11">
-        <v>52830</v>
+        <v>70845</v>
       </c>
       <c r="AD38" s="11">
-        <v>70845</v>
+        <v>77610</v>
       </c>
       <c r="AE38" s="11">
-        <v>77610</v>
+        <v>57968</v>
       </c>
       <c r="AF38" s="11">
-        <v>57968</v>
+        <v>46838</v>
       </c>
       <c r="AG38" s="11">
-        <v>46838</v>
+        <v>29588</v>
       </c>
       <c r="AH38" s="11">
-        <v>29588</v>
+        <v>54003</v>
       </c>
       <c r="AI38" s="11">
-        <v>54003</v>
+        <v>75922</v>
       </c>
       <c r="AJ38" s="11">
-        <v>75922</v>
+        <v>88550</v>
       </c>
       <c r="AK38" s="11">
-        <v>88550</v>
+        <v>93014</v>
       </c>
       <c r="AL38" s="11">
-        <v>93014</v>
+        <v>67867</v>
       </c>
       <c r="AM38" s="11">
-        <v>67867</v>
+        <v>91875</v>
       </c>
       <c r="AN38" s="11">
-        <v>91875</v>
+        <v>88099</v>
       </c>
       <c r="AO38" s="11">
-        <v>88099</v>
+        <v>84545</v>
       </c>
       <c r="AP38" s="11">
-        <v>84545</v>
+        <v>81801</v>
       </c>
       <c r="AQ38" s="11">
-        <v>81801</v>
+        <v>84280</v>
       </c>
       <c r="AR38" s="11">
-        <v>84280</v>
+        <v>3309</v>
       </c>
       <c r="AS38" s="11">
         <v>3309</v>
       </c>
-      <c r="AT38" s="11">
-        <v>3309</v>
+      <c r="AT38" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU38" s="11" t="s">
         <v>57</v>
@@ -5274,154 +5274,154 @@
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13">
-        <v>1513</v>
+        <v>2377</v>
       </c>
       <c r="F39" s="13">
-        <v>2377</v>
+        <v>2211</v>
       </c>
       <c r="G39" s="13">
-        <v>2211</v>
+        <v>1709</v>
       </c>
       <c r="H39" s="13">
-        <v>1709</v>
+        <v>1871</v>
       </c>
       <c r="I39" s="13">
-        <v>1871</v>
+        <v>405</v>
       </c>
       <c r="J39" s="13">
-        <v>405</v>
+        <v>1504</v>
       </c>
       <c r="K39" s="13">
-        <v>1504</v>
+        <v>1974</v>
       </c>
       <c r="L39" s="13">
-        <v>1974</v>
+        <v>1781</v>
       </c>
       <c r="M39" s="13">
-        <v>1781</v>
+        <v>2416</v>
       </c>
       <c r="N39" s="13">
-        <v>2416</v>
+        <v>2554</v>
       </c>
       <c r="O39" s="13">
-        <v>2554</v>
+        <v>2790</v>
       </c>
       <c r="P39" s="13">
-        <v>2790</v>
+        <v>2228</v>
       </c>
       <c r="Q39" s="13">
-        <v>2228</v>
+        <v>1811</v>
       </c>
       <c r="R39" s="13">
-        <v>1811</v>
+        <v>2581</v>
       </c>
       <c r="S39" s="13">
-        <v>2581</v>
+        <v>2651</v>
       </c>
       <c r="T39" s="13">
-        <v>2651</v>
+        <v>2527</v>
       </c>
       <c r="U39" s="13">
-        <v>2527</v>
+        <v>1437</v>
       </c>
       <c r="V39" s="13">
-        <v>1437</v>
+        <v>2493</v>
       </c>
       <c r="W39" s="13">
-        <v>2493</v>
+        <v>1918</v>
       </c>
       <c r="X39" s="13">
-        <v>1918</v>
+        <v>1969</v>
       </c>
       <c r="Y39" s="13">
-        <v>1969</v>
+        <v>2827</v>
       </c>
       <c r="Z39" s="13">
-        <v>2827</v>
+        <v>1763</v>
       </c>
       <c r="AA39" s="13">
-        <v>1763</v>
+        <v>2437</v>
       </c>
       <c r="AB39" s="13">
-        <v>2437</v>
+        <v>1772</v>
       </c>
       <c r="AC39" s="13">
-        <v>1772</v>
+        <v>792</v>
       </c>
       <c r="AD39" s="13">
-        <v>792</v>
+        <v>327</v>
       </c>
       <c r="AE39" s="13">
-        <v>327</v>
+        <v>66</v>
       </c>
       <c r="AF39" s="13">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="AG39" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH39" s="13">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="AI39" s="13">
-        <v>170</v>
+        <v>791</v>
       </c>
       <c r="AJ39" s="13">
-        <v>791</v>
+        <v>127</v>
       </c>
       <c r="AK39" s="13">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="AL39" s="13">
-        <v>83</v>
+        <v>233</v>
       </c>
       <c r="AM39" s="13">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="AN39" s="13">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="AO39" s="13">
-        <v>130</v>
+        <v>814</v>
       </c>
       <c r="AP39" s="13">
-        <v>814</v>
+        <v>888</v>
       </c>
       <c r="AQ39" s="13">
-        <v>888</v>
+        <v>1138</v>
       </c>
       <c r="AR39" s="13">
-        <v>1138</v>
+        <v>609</v>
       </c>
       <c r="AS39" s="13">
         <v>609</v>
       </c>
       <c r="AT39" s="13">
-        <v>609</v>
+        <v>1886</v>
       </c>
       <c r="AU39" s="13">
-        <v>1886</v>
+        <v>1072</v>
       </c>
       <c r="AV39" s="13">
-        <v>1072</v>
+        <v>1467</v>
       </c>
       <c r="AW39" s="13">
-        <v>1467</v>
+        <v>1769</v>
       </c>
       <c r="AX39" s="13">
-        <v>1769</v>
+        <v>1009</v>
       </c>
       <c r="AY39" s="13">
-        <v>1009</v>
+        <v>1534</v>
       </c>
       <c r="AZ39" s="13">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="BA39" s="13">
-        <v>1530</v>
+        <v>3320</v>
       </c>
       <c r="BB39" s="13">
-        <v>3320</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5474,17 +5474,17 @@
       <c r="R40" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="S40" s="11" t="s">
-        <v>57</v>
+      <c r="S40" s="11">
+        <v>523</v>
       </c>
       <c r="T40" s="11">
-        <v>523</v>
+        <v>23758</v>
       </c>
       <c r="U40" s="11">
-        <v>23758</v>
-      </c>
-      <c r="V40" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V40" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W40" s="11" t="s">
         <v>57</v>
@@ -5651,11 +5651,11 @@
       <c r="X41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y41" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z41" s="13">
-        <v>0</v>
+      <c r="Y41" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA41" s="13" t="s">
         <v>57</v>
@@ -5819,8 +5819,8 @@
       <c r="AA42" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB42" s="11" t="s">
-        <v>57</v>
+      <c r="AB42" s="11">
+        <v>0</v>
       </c>
       <c r="AC42" s="11">
         <v>0</v>
@@ -5837,8 +5837,8 @@
       <c r="AG42" s="11">
         <v>0</v>
       </c>
-      <c r="AH42" s="11">
-        <v>0</v>
+      <c r="AH42" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI42" s="11" t="s">
         <v>57</v>
@@ -5855,8 +5855,8 @@
       <c r="AM42" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN42" s="11" t="s">
-        <v>57</v>
+      <c r="AN42" s="11">
+        <v>0</v>
       </c>
       <c r="AO42" s="11">
         <v>0</v>
@@ -5873,8 +5873,8 @@
       <c r="AS42" s="11">
         <v>0</v>
       </c>
-      <c r="AT42" s="11">
-        <v>0</v>
+      <c r="AT42" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU42" s="11" t="s">
         <v>57</v>
@@ -5978,8 +5978,8 @@
       <c r="AA43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB43" s="13" t="s">
-        <v>57</v>
+      <c r="AB43" s="13">
+        <v>0</v>
       </c>
       <c r="AC43" s="13">
         <v>0</v>
@@ -5996,8 +5996,8 @@
       <c r="AG43" s="13">
         <v>0</v>
       </c>
-      <c r="AH43" s="13">
-        <v>0</v>
+      <c r="AH43" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI43" s="13" t="s">
         <v>57</v>
@@ -6014,8 +6014,8 @@
       <c r="AM43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN43" s="13" t="s">
-        <v>57</v>
+      <c r="AN43" s="13">
+        <v>0</v>
       </c>
       <c r="AO43" s="13">
         <v>0</v>
@@ -6032,8 +6032,8 @@
       <c r="AS43" s="13">
         <v>0</v>
       </c>
-      <c r="AT43" s="13">
-        <v>0</v>
+      <c r="AT43" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU43" s="13" t="s">
         <v>57</v>
@@ -6137,8 +6137,8 @@
       <c r="AA44" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB44" s="11" t="s">
-        <v>57</v>
+      <c r="AB44" s="11">
+        <v>0</v>
       </c>
       <c r="AC44" s="11">
         <v>0</v>
@@ -6155,8 +6155,8 @@
       <c r="AG44" s="11">
         <v>0</v>
       </c>
-      <c r="AH44" s="11">
-        <v>0</v>
+      <c r="AH44" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI44" s="11" t="s">
         <v>57</v>
@@ -6173,8 +6173,8 @@
       <c r="AM44" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN44" s="11" t="s">
-        <v>57</v>
+      <c r="AN44" s="11">
+        <v>0</v>
       </c>
       <c r="AO44" s="11">
         <v>0</v>
@@ -6191,8 +6191,8 @@
       <c r="AS44" s="11">
         <v>0</v>
       </c>
-      <c r="AT44" s="11">
-        <v>0</v>
+      <c r="AT44" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU44" s="11" t="s">
         <v>57</v>
@@ -6350,32 +6350,32 @@
       <c r="AS45" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT45" s="13" t="s">
-        <v>57</v>
+      <c r="AT45" s="13">
+        <v>59293</v>
       </c>
       <c r="AU45" s="13">
-        <v>59293</v>
+        <v>48037</v>
       </c>
       <c r="AV45" s="13">
-        <v>48037</v>
+        <v>51135</v>
       </c>
       <c r="AW45" s="13">
-        <v>51135</v>
+        <v>39217</v>
       </c>
       <c r="AX45" s="13">
-        <v>39217</v>
+        <v>14024</v>
       </c>
       <c r="AY45" s="13">
-        <v>14024</v>
+        <v>16703</v>
       </c>
       <c r="AZ45" s="13">
-        <v>16703</v>
+        <v>48668</v>
       </c>
       <c r="BA45" s="13">
-        <v>48668</v>
+        <v>70299</v>
       </c>
       <c r="BB45" s="13">
-        <v>70299</v>
+        <v>62292</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6569,17 +6569,17 @@
       <c r="AT47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU47" s="11" t="s">
-        <v>57</v>
+      <c r="AU47" s="11">
+        <v>100</v>
       </c>
       <c r="AV47" s="11">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AW47" s="11">
-        <v>-100</v>
-      </c>
-      <c r="AX47" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AX47" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AY47" s="11" t="s">
         <v>57</v>
@@ -6587,8 +6587,8 @@
       <c r="AZ47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BA47" s="11" t="s">
-        <v>57</v>
+      <c r="BA47" s="11">
+        <v>0</v>
       </c>
       <c r="BB47" s="11" t="s">
         <v>57</v>
@@ -6758,7 +6758,7 @@
         <v>63</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
@@ -6839,8 +6839,8 @@
       <c r="AD49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE49" s="11" t="s">
-        <v>57</v>
+      <c r="AE49" s="11">
+        <v>0</v>
       </c>
       <c r="AF49" s="11">
         <v>0</v>
@@ -6848,8 +6848,8 @@
       <c r="AG49" s="11">
         <v>0</v>
       </c>
-      <c r="AH49" s="11">
-        <v>0</v>
+      <c r="AH49" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI49" s="11" t="s">
         <v>57</v>
@@ -6887,17 +6887,17 @@
       <c r="AT49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU49" s="11" t="s">
-        <v>57</v>
+      <c r="AU49" s="11">
+        <v>6035</v>
       </c>
       <c r="AV49" s="11">
-        <v>6035</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="11">
         <v>0</v>
       </c>
-      <c r="AX49" s="11">
-        <v>0</v>
+      <c r="AX49" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AY49" s="11" t="s">
         <v>57</v>
@@ -6905,11 +6905,11 @@
       <c r="AZ49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BA49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB49" s="11" t="s">
-        <v>57</v>
+      <c r="BA49" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB49" s="11">
+        <v>5570</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6980,26 +6980,26 @@
       <c r="X50" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y50" s="13" t="s">
-        <v>57</v>
+      <c r="Y50" s="13">
+        <v>13924</v>
       </c>
       <c r="Z50" s="13">
-        <v>13924</v>
+        <v>8398</v>
       </c>
       <c r="AA50" s="13">
-        <v>8398</v>
+        <v>6972</v>
       </c>
       <c r="AB50" s="13">
         <v>6972</v>
       </c>
       <c r="AC50" s="13">
-        <v>6972</v>
+        <v>996</v>
       </c>
       <c r="AD50" s="13">
-        <v>996</v>
+        <v>2490</v>
       </c>
       <c r="AE50" s="13">
-        <v>2490</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="13">
         <v>0</v>
@@ -7007,8 +7007,8 @@
       <c r="AG50" s="13">
         <v>0</v>
       </c>
-      <c r="AH50" s="13">
-        <v>0</v>
+      <c r="AH50" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI50" s="13" t="s">
         <v>57</v>
@@ -7145,11 +7145,11 @@
       <c r="Z51" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AA51" s="11" t="s">
-        <v>57</v>
+      <c r="AA51" s="11">
+        <v>167</v>
       </c>
       <c r="AB51" s="11">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="AC51" s="11">
         <v>0</v>
@@ -7166,8 +7166,8 @@
       <c r="AG51" s="11">
         <v>0</v>
       </c>
-      <c r="AH51" s="11">
-        <v>0</v>
+      <c r="AH51" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI51" s="11" t="s">
         <v>57</v>
@@ -7307,11 +7307,11 @@
       <c r="AA52" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB52" s="13" t="s">
-        <v>57</v>
+      <c r="AB52" s="13">
+        <v>4900</v>
       </c>
       <c r="AC52" s="13">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="AD52" s="13">
         <v>0</v>
@@ -7325,8 +7325,8 @@
       <c r="AG52" s="13">
         <v>0</v>
       </c>
-      <c r="AH52" s="13">
-        <v>0</v>
+      <c r="AH52" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI52" s="13" t="s">
         <v>57</v>
@@ -7455,26 +7455,26 @@
       <c r="X53" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y53" s="15" t="s">
-        <v>57</v>
+      <c r="Y53" s="15">
+        <v>13924</v>
       </c>
       <c r="Z53" s="15">
-        <v>13924</v>
+        <v>8398</v>
       </c>
       <c r="AA53" s="15">
-        <v>8398</v>
+        <v>7139</v>
       </c>
       <c r="AB53" s="15">
-        <v>7139</v>
+        <v>11872</v>
       </c>
       <c r="AC53" s="15">
-        <v>11872</v>
+        <v>996</v>
       </c>
       <c r="AD53" s="15">
-        <v>996</v>
+        <v>2490</v>
       </c>
       <c r="AE53" s="15">
-        <v>2490</v>
+        <v>0</v>
       </c>
       <c r="AF53" s="15">
         <v>0</v>
@@ -7522,13 +7522,13 @@
         <v>0</v>
       </c>
       <c r="AU53" s="15">
-        <v>0</v>
+        <v>6135</v>
       </c>
       <c r="AV53" s="15">
-        <v>6135</v>
+        <v>-100</v>
       </c>
       <c r="AW53" s="15">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AX53" s="15">
         <v>0</v>
@@ -7543,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="BB53" s="15">
-        <v>0</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7737,14 +7737,14 @@
       <c r="AT55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU55" s="11" t="s">
-        <v>57</v>
+      <c r="AU55" s="11">
+        <v>-13</v>
       </c>
       <c r="AV55" s="11">
-        <v>-13</v>
-      </c>
-      <c r="AW55" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AW55" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AX55" s="11" t="s">
         <v>57</v>
@@ -7755,8 +7755,8 @@
       <c r="AZ55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BA55" s="11" t="s">
-        <v>57</v>
+      <c r="BA55" s="11">
+        <v>0</v>
       </c>
       <c r="BB55" s="11" t="s">
         <v>57</v>
@@ -7851,14 +7851,14 @@
       <c r="AE56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF56" s="13" t="s">
-        <v>57</v>
+      <c r="AF56" s="13">
+        <v>282</v>
       </c>
       <c r="AG56" s="13">
-        <v>282</v>
-      </c>
-      <c r="AH56" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH56" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI56" s="13" t="s">
         <v>57</v>
@@ -7896,26 +7896,26 @@
       <c r="AT56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU56" s="13" t="s">
-        <v>57</v>
+      <c r="AU56" s="13">
+        <v>-231</v>
       </c>
       <c r="AV56" s="13">
-        <v>-231</v>
-      </c>
-      <c r="AW56" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AW56" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AY56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ56" s="13">
+      <c r="AY56" s="13">
         <v>-603</v>
       </c>
-      <c r="BA56" s="13" t="s">
-        <v>57</v>
+      <c r="AZ56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA56" s="13">
+        <v>834</v>
       </c>
       <c r="BB56" s="13" t="s">
         <v>57</v>
@@ -7987,8 +7987,8 @@
       <c r="X57" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y57" s="15" t="s">
-        <v>57</v>
+      <c r="Y57" s="15">
+        <v>0</v>
       </c>
       <c r="Z57" s="15">
         <v>0</v>
@@ -8009,10 +8009,10 @@
         <v>0</v>
       </c>
       <c r="AF57" s="15">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="AG57" s="15">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="AH57" s="15">
         <v>0</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="AU57" s="15">
-        <v>0</v>
+        <v>-244</v>
       </c>
       <c r="AV57" s="15">
-        <v>-244</v>
+        <v>0</v>
       </c>
       <c r="AW57" s="15">
         <v>0</v>
@@ -8066,13 +8066,13 @@
         <v>0</v>
       </c>
       <c r="AY57" s="15">
-        <v>0</v>
+        <v>-603</v>
       </c>
       <c r="AZ57" s="15">
-        <v>-603</v>
+        <v>0</v>
       </c>
       <c r="BA57" s="15">
-        <v>0</v>
+        <v>834</v>
       </c>
       <c r="BB57" s="15">
         <v>0</v>
@@ -8085,154 +8085,154 @@
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17">
-        <v>97010</v>
+        <v>93516</v>
       </c>
       <c r="F58" s="17">
-        <v>93516</v>
+        <v>107199</v>
       </c>
       <c r="G58" s="17">
-        <v>107199</v>
+        <v>90277</v>
       </c>
       <c r="H58" s="17">
-        <v>90277</v>
+        <v>120041</v>
       </c>
       <c r="I58" s="17">
-        <v>120041</v>
+        <v>41234</v>
       </c>
       <c r="J58" s="17">
-        <v>41234</v>
+        <v>94521</v>
       </c>
       <c r="K58" s="17">
-        <v>94521</v>
+        <v>98468</v>
       </c>
       <c r="L58" s="17">
-        <v>98468</v>
+        <v>105539</v>
       </c>
       <c r="M58" s="17">
-        <v>105539</v>
+        <v>110385</v>
       </c>
       <c r="N58" s="17">
-        <v>110385</v>
+        <v>124187</v>
       </c>
       <c r="O58" s="17">
-        <v>124187</v>
+        <v>163801</v>
       </c>
       <c r="P58" s="17">
-        <v>163801</v>
+        <v>170827</v>
       </c>
       <c r="Q58" s="17">
-        <v>170827</v>
+        <v>182384</v>
       </c>
       <c r="R58" s="17">
-        <v>182384</v>
+        <v>161576</v>
       </c>
       <c r="S58" s="17">
-        <v>161576</v>
+        <v>177642</v>
       </c>
       <c r="T58" s="17">
-        <v>177642</v>
+        <v>186832</v>
       </c>
       <c r="U58" s="17">
-        <v>186832</v>
+        <v>59288</v>
       </c>
       <c r="V58" s="17">
-        <v>59288</v>
+        <v>144076</v>
       </c>
       <c r="W58" s="17">
-        <v>144076</v>
+        <v>165647</v>
       </c>
       <c r="X58" s="17">
-        <v>165647</v>
+        <v>190446</v>
       </c>
       <c r="Y58" s="17">
-        <v>190446</v>
+        <v>166803</v>
       </c>
       <c r="Z58" s="17">
-        <v>166803</v>
+        <v>147067</v>
       </c>
       <c r="AA58" s="17">
-        <v>147067</v>
+        <v>134538</v>
       </c>
       <c r="AB58" s="17">
-        <v>134538</v>
+        <v>99446</v>
       </c>
       <c r="AC58" s="17">
-        <v>99446</v>
+        <v>108323</v>
       </c>
       <c r="AD58" s="17">
-        <v>108323</v>
+        <v>111828</v>
       </c>
       <c r="AE58" s="17">
-        <v>111828</v>
+        <v>72889</v>
       </c>
       <c r="AF58" s="17">
-        <v>72889</v>
+        <v>50267</v>
       </c>
       <c r="AG58" s="17">
-        <v>50267</v>
+        <v>33992</v>
       </c>
       <c r="AH58" s="17">
-        <v>33992</v>
+        <v>76619</v>
       </c>
       <c r="AI58" s="17">
-        <v>76619</v>
+        <v>98429</v>
       </c>
       <c r="AJ58" s="17">
-        <v>98429</v>
+        <v>105090</v>
       </c>
       <c r="AK58" s="17">
-        <v>105090</v>
+        <v>113824</v>
       </c>
       <c r="AL58" s="17">
-        <v>113824</v>
+        <v>97646</v>
       </c>
       <c r="AM58" s="17">
-        <v>97646</v>
+        <v>127823</v>
       </c>
       <c r="AN58" s="17">
-        <v>127823</v>
+        <v>130598</v>
       </c>
       <c r="AO58" s="17">
-        <v>130598</v>
+        <v>119919</v>
       </c>
       <c r="AP58" s="17">
-        <v>119919</v>
+        <v>123994</v>
       </c>
       <c r="AQ58" s="17">
-        <v>123994</v>
+        <v>128998</v>
       </c>
       <c r="AR58" s="17">
-        <v>128998</v>
+        <v>19225</v>
       </c>
       <c r="AS58" s="17">
         <v>19225</v>
       </c>
       <c r="AT58" s="17">
-        <v>19225</v>
+        <v>91645</v>
       </c>
       <c r="AU58" s="17">
-        <v>91645</v>
+        <v>81539</v>
       </c>
       <c r="AV58" s="17">
-        <v>81539</v>
+        <v>81677</v>
       </c>
       <c r="AW58" s="17">
-        <v>81677</v>
+        <v>62757</v>
       </c>
       <c r="AX58" s="17">
-        <v>62757</v>
+        <v>32512</v>
       </c>
       <c r="AY58" s="17">
-        <v>32512</v>
+        <v>42758</v>
       </c>
       <c r="AZ58" s="17">
-        <v>42758</v>
+        <v>67974</v>
       </c>
       <c r="BA58" s="17">
-        <v>67974</v>
+        <v>99988</v>
       </c>
       <c r="BB58" s="17">
-        <v>99154</v>
+        <v>105310</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -8690,19 +8690,19 @@
         <v>0</v>
       </c>
       <c r="I65" s="11">
-        <v>0</v>
-      </c>
-      <c r="J65" s="11">
         <v>5308</v>
       </c>
+      <c r="J65" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="K65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L65" s="11" t="s">
-        <v>57</v>
+      <c r="L65" s="11">
+        <v>47</v>
       </c>
       <c r="M65" s="11">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N65" s="11">
         <v>0</v>
@@ -8728,20 +8728,20 @@
       <c r="U65" s="11">
         <v>0</v>
       </c>
-      <c r="V65" s="11">
-        <v>0</v>
+      <c r="V65" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="X65" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y65" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="11" t="s">
-        <v>57</v>
+      <c r="X65" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z65" s="11">
+        <v>0</v>
       </c>
       <c r="AA65" s="11">
         <v>0</v>
@@ -8764,8 +8764,8 @@
       <c r="AG65" s="11">
         <v>0</v>
       </c>
-      <c r="AH65" s="11">
-        <v>0</v>
+      <c r="AH65" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI65" s="11" t="s">
         <v>57</v>
@@ -8782,8 +8782,8 @@
       <c r="AM65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN65" s="11" t="s">
-        <v>57</v>
+      <c r="AN65" s="11">
+        <v>0</v>
       </c>
       <c r="AO65" s="11">
         <v>0</v>
@@ -8800,8 +8800,8 @@
       <c r="AS65" s="11">
         <v>0</v>
       </c>
-      <c r="AT65" s="11">
-        <v>0</v>
+      <c r="AT65" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU65" s="11" t="s">
         <v>57</v>
@@ -8837,154 +8837,154 @@
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13">
-        <v>111974</v>
+        <v>97469</v>
       </c>
       <c r="F66" s="13">
-        <v>97469</v>
+        <v>116725</v>
       </c>
       <c r="G66" s="13">
-        <v>116725</v>
+        <v>132797</v>
       </c>
       <c r="H66" s="13">
-        <v>132797</v>
+        <v>138092</v>
       </c>
       <c r="I66" s="13">
-        <v>138092</v>
+        <v>39556</v>
       </c>
       <c r="J66" s="13">
-        <v>39556</v>
+        <v>125958</v>
       </c>
       <c r="K66" s="13">
-        <v>125958</v>
+        <v>149236</v>
       </c>
       <c r="L66" s="13">
-        <v>149236</v>
+        <v>168527</v>
       </c>
       <c r="M66" s="13">
-        <v>168527</v>
+        <v>188056</v>
       </c>
       <c r="N66" s="13">
-        <v>188056</v>
+        <v>214263</v>
       </c>
       <c r="O66" s="13">
-        <v>214263</v>
+        <v>262522</v>
       </c>
       <c r="P66" s="13">
-        <v>262522</v>
+        <v>255844</v>
       </c>
       <c r="Q66" s="13">
-        <v>255844</v>
+        <v>225427</v>
       </c>
       <c r="R66" s="13">
-        <v>225427</v>
+        <v>290438</v>
       </c>
       <c r="S66" s="13">
-        <v>290438</v>
+        <v>302855</v>
       </c>
       <c r="T66" s="13">
-        <v>302855</v>
+        <v>322232</v>
       </c>
       <c r="U66" s="13">
-        <v>322232</v>
+        <v>51858</v>
       </c>
       <c r="V66" s="13">
-        <v>51858</v>
+        <v>195998</v>
       </c>
       <c r="W66" s="13">
-        <v>195998</v>
+        <v>234543</v>
       </c>
       <c r="X66" s="13">
-        <v>234543</v>
+        <v>208598</v>
       </c>
       <c r="Y66" s="13">
-        <v>208598</v>
+        <v>247409</v>
       </c>
       <c r="Z66" s="13">
-        <v>247409</v>
+        <v>241187</v>
       </c>
       <c r="AA66" s="13">
-        <v>241187</v>
+        <v>233686</v>
       </c>
       <c r="AB66" s="13">
-        <v>233686</v>
+        <v>204873</v>
       </c>
       <c r="AC66" s="13">
-        <v>204873</v>
+        <v>166166</v>
       </c>
       <c r="AD66" s="13">
-        <v>166166</v>
+        <v>128837</v>
       </c>
       <c r="AE66" s="13">
-        <v>128837</v>
+        <v>93151</v>
       </c>
       <c r="AF66" s="13">
-        <v>93151</v>
+        <v>29610</v>
       </c>
       <c r="AG66" s="13">
-        <v>29610</v>
+        <v>33325</v>
       </c>
       <c r="AH66" s="13">
-        <v>33325</v>
+        <v>99201</v>
       </c>
       <c r="AI66" s="13">
-        <v>99201</v>
+        <v>114949</v>
       </c>
       <c r="AJ66" s="13">
-        <v>114949</v>
+        <v>69133</v>
       </c>
       <c r="AK66" s="13">
-        <v>69133</v>
+        <v>82726</v>
       </c>
       <c r="AL66" s="13">
-        <v>82726</v>
+        <v>132808</v>
       </c>
       <c r="AM66" s="13">
-        <v>132808</v>
+        <v>167798</v>
       </c>
       <c r="AN66" s="13">
-        <v>167798</v>
+        <v>144108</v>
       </c>
       <c r="AO66" s="13">
-        <v>144108</v>
+        <v>210592</v>
       </c>
       <c r="AP66" s="13">
-        <v>210592</v>
+        <v>214812</v>
       </c>
       <c r="AQ66" s="13">
-        <v>214812</v>
+        <v>262446</v>
       </c>
       <c r="AR66" s="13">
-        <v>262446</v>
+        <v>90889</v>
       </c>
       <c r="AS66" s="13">
         <v>90889</v>
       </c>
       <c r="AT66" s="13">
-        <v>90889</v>
+        <v>195095</v>
       </c>
       <c r="AU66" s="13">
-        <v>195095</v>
+        <v>203900</v>
       </c>
       <c r="AV66" s="13">
-        <v>203900</v>
+        <v>191703</v>
       </c>
       <c r="AW66" s="13">
-        <v>191703</v>
+        <v>221323</v>
       </c>
       <c r="AX66" s="13">
-        <v>221323</v>
+        <v>295475</v>
       </c>
       <c r="AY66" s="13">
-        <v>295475</v>
+        <v>375774</v>
       </c>
       <c r="AZ66" s="13">
-        <v>375774</v>
+        <v>363688</v>
       </c>
       <c r="BA66" s="13">
-        <v>363688</v>
+        <v>577635</v>
       </c>
       <c r="BB66" s="13">
-        <v>577635</v>
+        <v>903468</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8996,130 +8996,130 @@
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
-        <v>162245</v>
+        <v>166548</v>
       </c>
       <c r="F67" s="11">
-        <v>166548</v>
+        <v>196837</v>
       </c>
       <c r="G67" s="11">
-        <v>196837</v>
+        <v>152140</v>
       </c>
       <c r="H67" s="11">
-        <v>152140</v>
+        <v>213291</v>
       </c>
       <c r="I67" s="11">
-        <v>213291</v>
+        <v>76836</v>
       </c>
       <c r="J67" s="11">
-        <v>76836</v>
+        <v>152623</v>
       </c>
       <c r="K67" s="11">
-        <v>152623</v>
+        <v>192077</v>
       </c>
       <c r="L67" s="11">
-        <v>192077</v>
+        <v>196817</v>
       </c>
       <c r="M67" s="11">
-        <v>196817</v>
+        <v>183032</v>
       </c>
       <c r="N67" s="11">
-        <v>183032</v>
+        <v>235255</v>
       </c>
       <c r="O67" s="11">
-        <v>235255</v>
+        <v>309704</v>
       </c>
       <c r="P67" s="11">
-        <v>309704</v>
+        <v>331530</v>
       </c>
       <c r="Q67" s="11">
-        <v>331530</v>
+        <v>410939</v>
       </c>
       <c r="R67" s="11">
-        <v>410939</v>
+        <v>315900</v>
       </c>
       <c r="S67" s="11">
-        <v>315900</v>
+        <v>346474</v>
       </c>
       <c r="T67" s="11">
-        <v>346474</v>
+        <v>329409</v>
       </c>
       <c r="U67" s="11">
-        <v>329409</v>
+        <v>86099</v>
       </c>
       <c r="V67" s="11">
-        <v>86099</v>
+        <v>314082</v>
       </c>
       <c r="W67" s="11">
-        <v>314082</v>
+        <v>357560</v>
       </c>
       <c r="X67" s="11">
-        <v>357560</v>
+        <v>395688</v>
       </c>
       <c r="Y67" s="11">
-        <v>395688</v>
+        <v>292806</v>
       </c>
       <c r="Z67" s="11">
-        <v>292806</v>
+        <v>266650</v>
       </c>
       <c r="AA67" s="11">
-        <v>266650</v>
+        <v>238816</v>
       </c>
       <c r="AB67" s="11">
-        <v>238816</v>
+        <v>219287</v>
       </c>
       <c r="AC67" s="11">
-        <v>219287</v>
+        <v>308261</v>
       </c>
       <c r="AD67" s="11">
-        <v>308261</v>
+        <v>349315</v>
       </c>
       <c r="AE67" s="11">
-        <v>349315</v>
+        <v>243513</v>
       </c>
       <c r="AF67" s="11">
-        <v>243513</v>
+        <v>198819</v>
       </c>
       <c r="AG67" s="11">
-        <v>198819</v>
+        <v>106028</v>
       </c>
       <c r="AH67" s="11">
-        <v>106028</v>
+        <v>238883</v>
       </c>
       <c r="AI67" s="11">
-        <v>238883</v>
+        <v>327969</v>
       </c>
       <c r="AJ67" s="11">
-        <v>327969</v>
+        <v>324462</v>
       </c>
       <c r="AK67" s="11">
-        <v>324462</v>
+        <v>357025</v>
       </c>
       <c r="AL67" s="11">
-        <v>357025</v>
+        <v>371158</v>
       </c>
       <c r="AM67" s="11">
-        <v>371158</v>
+        <v>490785</v>
       </c>
       <c r="AN67" s="11">
-        <v>490785</v>
+        <v>430397</v>
       </c>
       <c r="AO67" s="11">
-        <v>430397</v>
+        <v>438276</v>
       </c>
       <c r="AP67" s="11">
-        <v>438276</v>
+        <v>448083</v>
       </c>
       <c r="AQ67" s="11">
-        <v>448083</v>
+        <v>459389</v>
       </c>
       <c r="AR67" s="11">
-        <v>459389</v>
+        <v>25115</v>
       </c>
       <c r="AS67" s="11">
         <v>25115</v>
       </c>
-      <c r="AT67" s="11">
-        <v>25115</v>
+      <c r="AT67" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU67" s="11" t="s">
         <v>57</v>
@@ -9155,154 +9155,154 @@
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
-        <v>59792</v>
+        <v>102647</v>
       </c>
       <c r="F68" s="13">
-        <v>102647</v>
+        <v>98472</v>
       </c>
       <c r="G68" s="13">
-        <v>98472</v>
+        <v>79817</v>
       </c>
       <c r="H68" s="13">
-        <v>79817</v>
+        <v>89812</v>
       </c>
       <c r="I68" s="13">
-        <v>89812</v>
+        <v>16345</v>
       </c>
       <c r="J68" s="13">
-        <v>16345</v>
+        <v>63305</v>
       </c>
       <c r="K68" s="13">
-        <v>63305</v>
+        <v>91920</v>
       </c>
       <c r="L68" s="13">
-        <v>91920</v>
+        <v>92363</v>
       </c>
       <c r="M68" s="13">
-        <v>92363</v>
+        <v>139596</v>
       </c>
       <c r="N68" s="13">
-        <v>139596</v>
+        <v>166281</v>
       </c>
       <c r="O68" s="13">
-        <v>166281</v>
+        <v>170858</v>
       </c>
       <c r="P68" s="13">
-        <v>170858</v>
+        <v>124966</v>
       </c>
       <c r="Q68" s="13">
-        <v>124966</v>
+        <v>98196</v>
       </c>
       <c r="R68" s="13">
-        <v>98196</v>
+        <v>149844</v>
       </c>
       <c r="S68" s="13">
-        <v>149844</v>
+        <v>140604</v>
       </c>
       <c r="T68" s="13">
-        <v>140604</v>
+        <v>150905</v>
       </c>
       <c r="U68" s="13">
-        <v>150905</v>
+        <v>87524</v>
       </c>
       <c r="V68" s="13">
-        <v>87524</v>
+        <v>140858</v>
       </c>
       <c r="W68" s="13">
-        <v>140858</v>
+        <v>110915</v>
       </c>
       <c r="X68" s="13">
-        <v>110915</v>
+        <v>107354</v>
       </c>
       <c r="Y68" s="13">
-        <v>107354</v>
+        <v>164163</v>
       </c>
       <c r="Z68" s="13">
-        <v>164163</v>
+        <v>98884</v>
       </c>
       <c r="AA68" s="13">
-        <v>98884</v>
+        <v>143716</v>
       </c>
       <c r="AB68" s="13">
-        <v>143716</v>
+        <v>104716</v>
       </c>
       <c r="AC68" s="13">
-        <v>104716</v>
+        <v>46199</v>
       </c>
       <c r="AD68" s="13">
-        <v>46199</v>
+        <v>22349</v>
       </c>
       <c r="AE68" s="13">
-        <v>22349</v>
+        <v>5423</v>
       </c>
       <c r="AF68" s="13">
-        <v>5423</v>
+        <v>392</v>
       </c>
       <c r="AG68" s="13">
-        <v>392</v>
+        <v>319</v>
       </c>
       <c r="AH68" s="13">
-        <v>319</v>
+        <v>12120</v>
       </c>
       <c r="AI68" s="13">
-        <v>12120</v>
+        <v>59944</v>
       </c>
       <c r="AJ68" s="13">
-        <v>59944</v>
+        <v>8392</v>
       </c>
       <c r="AK68" s="13">
-        <v>8392</v>
+        <v>5243</v>
       </c>
       <c r="AL68" s="13">
-        <v>5243</v>
+        <v>16123</v>
       </c>
       <c r="AM68" s="13">
-        <v>16123</v>
+        <v>25170</v>
       </c>
       <c r="AN68" s="13">
-        <v>25170</v>
+        <v>6363</v>
       </c>
       <c r="AO68" s="13">
-        <v>6363</v>
+        <v>60144</v>
       </c>
       <c r="AP68" s="13">
-        <v>60144</v>
+        <v>79669</v>
       </c>
       <c r="AQ68" s="13">
-        <v>79669</v>
+        <v>78831</v>
       </c>
       <c r="AR68" s="13">
-        <v>78831</v>
+        <v>47399</v>
       </c>
       <c r="AS68" s="13">
         <v>47399</v>
       </c>
       <c r="AT68" s="13">
-        <v>47399</v>
+        <v>167988</v>
       </c>
       <c r="AU68" s="13">
-        <v>167988</v>
+        <v>86959</v>
       </c>
       <c r="AV68" s="13">
-        <v>86959</v>
+        <v>137105</v>
       </c>
       <c r="AW68" s="13">
-        <v>137105</v>
+        <v>219347</v>
       </c>
       <c r="AX68" s="13">
-        <v>219347</v>
+        <v>193827</v>
       </c>
       <c r="AY68" s="13">
-        <v>193827</v>
+        <v>315663</v>
       </c>
       <c r="AZ68" s="13">
-        <v>315663</v>
+        <v>265317</v>
       </c>
       <c r="BA68" s="13">
-        <v>265317</v>
+        <v>766544</v>
       </c>
       <c r="BB68" s="13">
-        <v>766544</v>
+        <v>746811</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -9355,17 +9355,17 @@
       <c r="R69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="S69" s="11" t="s">
-        <v>57</v>
+      <c r="S69" s="11">
+        <v>13074</v>
       </c>
       <c r="T69" s="11">
-        <v>13074</v>
+        <v>9746</v>
       </c>
       <c r="U69" s="11">
-        <v>9746</v>
-      </c>
-      <c r="V69" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V69" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W69" s="11" t="s">
         <v>57</v>
@@ -9532,11 +9532,11 @@
       <c r="X70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y70" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z70" s="13">
-        <v>0</v>
+      <c r="Y70" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA70" s="13" t="s">
         <v>57</v>
@@ -9700,25 +9700,25 @@
       <c r="AA71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB71" s="11" t="s">
-        <v>57</v>
+      <c r="AB71" s="11">
+        <v>29780</v>
       </c>
       <c r="AC71" s="11">
-        <v>29780</v>
+        <v>0</v>
       </c>
       <c r="AD71" s="11">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE71" s="11">
-        <v>29</v>
+        <v>11222</v>
       </c>
       <c r="AF71" s="11">
-        <v>11222</v>
+        <v>0</v>
       </c>
       <c r="AG71" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH71" s="11">
+        <v>57</v>
+      </c>
+      <c r="AH71" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AI71" s="11" t="s">
@@ -9736,8 +9736,8 @@
       <c r="AM71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN71" s="11" t="s">
-        <v>57</v>
+      <c r="AN71" s="11">
+        <v>0</v>
       </c>
       <c r="AO71" s="11">
         <v>0</v>
@@ -9754,8 +9754,8 @@
       <c r="AS71" s="11">
         <v>0</v>
       </c>
-      <c r="AT71" s="11">
-        <v>0</v>
+      <c r="AT71" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU71" s="11" t="s">
         <v>57</v>
@@ -9859,26 +9859,26 @@
       <c r="AA72" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB72" s="13" t="s">
-        <v>57</v>
+      <c r="AB72" s="13">
+        <v>53827</v>
       </c>
       <c r="AC72" s="13">
-        <v>53827</v>
+        <v>0</v>
       </c>
       <c r="AD72" s="13">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="AE72" s="13">
-        <v>82</v>
+        <v>30671</v>
       </c>
       <c r="AF72" s="13">
-        <v>30671</v>
+        <v>0</v>
       </c>
       <c r="AG72" s="13">
         <v>0</v>
       </c>
-      <c r="AH72" s="13">
-        <v>0</v>
+      <c r="AH72" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI72" s="13" t="s">
         <v>57</v>
@@ -9895,8 +9895,8 @@
       <c r="AM72" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN72" s="13" t="s">
-        <v>57</v>
+      <c r="AN72" s="13">
+        <v>0</v>
       </c>
       <c r="AO72" s="13">
         <v>0</v>
@@ -9913,8 +9913,8 @@
       <c r="AS72" s="13">
         <v>0</v>
       </c>
-      <c r="AT72" s="13">
-        <v>0</v>
+      <c r="AT72" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU72" s="13" t="s">
         <v>57</v>
@@ -10018,26 +10018,26 @@
       <c r="AA73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB73" s="11" t="s">
-        <v>57</v>
+      <c r="AB73" s="11">
+        <v>130932</v>
       </c>
       <c r="AC73" s="11">
-        <v>130932</v>
+        <v>0</v>
       </c>
       <c r="AD73" s="11">
         <v>0</v>
       </c>
       <c r="AE73" s="11">
-        <v>0</v>
+        <v>27151</v>
       </c>
       <c r="AF73" s="11">
-        <v>27151</v>
+        <v>0</v>
       </c>
       <c r="AG73" s="11">
         <v>0</v>
       </c>
-      <c r="AH73" s="11">
-        <v>0</v>
+      <c r="AH73" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI73" s="11" t="s">
         <v>57</v>
@@ -10054,8 +10054,8 @@
       <c r="AM73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN73" s="11" t="s">
-        <v>57</v>
+      <c r="AN73" s="11">
+        <v>0</v>
       </c>
       <c r="AO73" s="11">
         <v>0</v>
@@ -10072,8 +10072,8 @@
       <c r="AS73" s="11">
         <v>0</v>
       </c>
-      <c r="AT73" s="11">
-        <v>0</v>
+      <c r="AT73" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU73" s="11" t="s">
         <v>57</v>
@@ -10231,32 +10231,32 @@
       <c r="AS74" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT74" s="13" t="s">
-        <v>57</v>
+      <c r="AT74" s="13">
+        <v>360540</v>
       </c>
       <c r="AU74" s="13">
-        <v>360540</v>
+        <v>278409</v>
       </c>
       <c r="AV74" s="13">
-        <v>278409</v>
+        <v>348746</v>
       </c>
       <c r="AW74" s="13">
-        <v>348746</v>
+        <v>296456</v>
       </c>
       <c r="AX74" s="13">
-        <v>296456</v>
+        <v>335719</v>
       </c>
       <c r="AY74" s="13">
-        <v>335719</v>
+        <v>321388</v>
       </c>
       <c r="AZ74" s="13">
-        <v>321388</v>
+        <v>706241</v>
       </c>
       <c r="BA74" s="13">
-        <v>706241</v>
+        <v>1073995</v>
       </c>
       <c r="BB74" s="13">
-        <v>1073995</v>
+        <v>939932</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -10447,17 +10447,17 @@
       <c r="AS76" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT76" s="11" t="s">
-        <v>57</v>
+      <c r="AT76" s="11">
+        <v>0</v>
       </c>
       <c r="AU76" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV76" s="11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AW76" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AX76" s="11">
         <v>0</v>
@@ -10579,14 +10579,14 @@
       <c r="AJ77" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK77" s="13" t="s">
-        <v>57</v>
+      <c r="AK77" s="13">
+        <v>0</v>
       </c>
       <c r="AL77" s="13">
         <v>0</v>
       </c>
-      <c r="AM77" s="13">
-        <v>0</v>
+      <c r="AM77" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN77" s="13" t="s">
         <v>57</v>
@@ -10720,8 +10720,8 @@
       <c r="AD78" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE78" s="11" t="s">
-        <v>57</v>
+      <c r="AE78" s="11">
+        <v>0</v>
       </c>
       <c r="AF78" s="11">
         <v>0</v>
@@ -10729,8 +10729,8 @@
       <c r="AG78" s="11">
         <v>0</v>
       </c>
-      <c r="AH78" s="11">
-        <v>0</v>
+      <c r="AH78" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI78" s="11" t="s">
         <v>57</v>
@@ -10768,11 +10768,11 @@
       <c r="AT78" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU78" s="11" t="s">
-        <v>57</v>
+      <c r="AU78" s="11">
+        <v>4828</v>
       </c>
       <c r="AV78" s="11">
-        <v>4828</v>
+        <v>0</v>
       </c>
       <c r="AW78" s="11">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="BB78" s="11">
-        <v>0</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -10861,26 +10861,26 @@
       <c r="X79" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y79" s="13" t="s">
-        <v>57</v>
+      <c r="Y79" s="13">
+        <v>9050</v>
       </c>
       <c r="Z79" s="13">
-        <v>9050</v>
+        <v>5188</v>
       </c>
       <c r="AA79" s="13">
-        <v>5188</v>
+        <v>4532</v>
       </c>
       <c r="AB79" s="13">
         <v>4532</v>
       </c>
       <c r="AC79" s="13">
-        <v>4532</v>
+        <v>647</v>
       </c>
       <c r="AD79" s="13">
-        <v>647</v>
+        <v>1618</v>
       </c>
       <c r="AE79" s="13">
-        <v>1618</v>
+        <v>0</v>
       </c>
       <c r="AF79" s="13">
         <v>0</v>
@@ -10888,8 +10888,8 @@
       <c r="AG79" s="13">
         <v>0</v>
       </c>
-      <c r="AH79" s="13">
-        <v>0</v>
+      <c r="AH79" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI79" s="13" t="s">
         <v>57</v>
@@ -10903,8 +10903,8 @@
       <c r="AL79" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM79" s="13" t="s">
-        <v>57</v>
+      <c r="AM79" s="13">
+        <v>0</v>
       </c>
       <c r="AN79" s="13">
         <v>0</v>
@@ -10924,8 +10924,8 @@
       <c r="AS79" s="13">
         <v>0</v>
       </c>
-      <c r="AT79" s="13">
-        <v>0</v>
+      <c r="AT79" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU79" s="13" t="s">
         <v>57</v>
@@ -11026,11 +11026,11 @@
       <c r="Z80" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AA80" s="11" t="s">
-        <v>57</v>
+      <c r="AA80" s="11">
+        <v>1822</v>
       </c>
       <c r="AB80" s="11">
-        <v>1822</v>
+        <v>0</v>
       </c>
       <c r="AC80" s="11">
         <v>0</v>
@@ -11047,8 +11047,8 @@
       <c r="AG80" s="11">
         <v>0</v>
       </c>
-      <c r="AH80" s="11">
-        <v>0</v>
+      <c r="AH80" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI80" s="11" t="s">
         <v>57</v>
@@ -11062,8 +11062,8 @@
       <c r="AL80" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM80" s="11" t="s">
-        <v>57</v>
+      <c r="AM80" s="11">
+        <v>0</v>
       </c>
       <c r="AN80" s="11">
         <v>0</v>
@@ -11083,8 +11083,8 @@
       <c r="AS80" s="11">
         <v>0</v>
       </c>
-      <c r="AT80" s="11">
-        <v>0</v>
+      <c r="AT80" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU80" s="11" t="s">
         <v>57</v>
@@ -11188,11 +11188,11 @@
       <c r="AA81" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB81" s="13" t="s">
-        <v>57</v>
+      <c r="AB81" s="13">
+        <v>2940</v>
       </c>
       <c r="AC81" s="13">
-        <v>2940</v>
+        <v>0</v>
       </c>
       <c r="AD81" s="13">
         <v>0</v>
@@ -11206,8 +11206,8 @@
       <c r="AG81" s="13">
         <v>0</v>
       </c>
-      <c r="AH81" s="13">
-        <v>0</v>
+      <c r="AH81" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI81" s="13" t="s">
         <v>57</v>
@@ -11224,8 +11224,8 @@
       <c r="AM81" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN81" s="13" t="s">
-        <v>57</v>
+      <c r="AN81" s="13">
+        <v>0</v>
       </c>
       <c r="AO81" s="13">
         <v>0</v>
@@ -11242,8 +11242,8 @@
       <c r="AS81" s="13">
         <v>0</v>
       </c>
-      <c r="AT81" s="13">
-        <v>0</v>
+      <c r="AT81" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU81" s="13" t="s">
         <v>57</v>
@@ -11338,26 +11338,26 @@
       <c r="X82" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y82" s="15" t="s">
-        <v>57</v>
+      <c r="Y82" s="15">
+        <v>9050</v>
       </c>
       <c r="Z82" s="15">
-        <v>9050</v>
+        <v>5188</v>
       </c>
       <c r="AA82" s="15">
-        <v>5188</v>
+        <v>6354</v>
       </c>
       <c r="AB82" s="15">
-        <v>6354</v>
+        <v>7472</v>
       </c>
       <c r="AC82" s="15">
-        <v>7472</v>
+        <v>647</v>
       </c>
       <c r="AD82" s="15">
-        <v>647</v>
+        <v>1618</v>
       </c>
       <c r="AE82" s="15">
-        <v>1618</v>
+        <v>0</v>
       </c>
       <c r="AF82" s="15">
         <v>0</v>
@@ -11405,13 +11405,13 @@
         <v>0</v>
       </c>
       <c r="AU82" s="15">
-        <v>0</v>
+        <v>4829</v>
       </c>
       <c r="AV82" s="15">
-        <v>4829</v>
+        <v>-1</v>
       </c>
       <c r="AW82" s="15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AX82" s="15">
         <v>0</v>
@@ -11426,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="BB82" s="15">
-        <v>0</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -11620,11 +11620,11 @@
       <c r="AT84" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU84" s="11" t="s">
-        <v>57</v>
+      <c r="AU84" s="11">
+        <v>-120</v>
       </c>
       <c r="AV84" s="11">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="AW84" s="11">
         <v>0</v>
@@ -11734,14 +11734,14 @@
       <c r="AE85" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF85" s="13" t="s">
-        <v>57</v>
+      <c r="AF85" s="13">
+        <v>-25803</v>
       </c>
       <c r="AG85" s="13">
-        <v>-25803</v>
-      </c>
-      <c r="AH85" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH85" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI85" s="13" t="s">
         <v>57</v>
@@ -11770,20 +11770,20 @@
       <c r="AQ85" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR85" s="13" t="s">
-        <v>57</v>
+      <c r="AR85" s="13">
+        <v>0</v>
       </c>
       <c r="AS85" s="13">
         <v>0</v>
       </c>
-      <c r="AT85" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU85" s="13" t="s">
-        <v>57</v>
+      <c r="AT85" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU85" s="13">
+        <v>-15</v>
       </c>
       <c r="AV85" s="13">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AW85" s="13">
         <v>0</v>
@@ -11792,16 +11792,16 @@
         <v>0</v>
       </c>
       <c r="AY85" s="13">
-        <v>0</v>
+        <v>-66</v>
       </c>
       <c r="AZ85" s="13">
-        <v>-66</v>
+        <v>0</v>
       </c>
       <c r="BA85" s="13">
         <v>0</v>
       </c>
       <c r="BB85" s="13">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11872,8 +11872,8 @@
       <c r="X86" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y86" s="15" t="s">
-        <v>57</v>
+      <c r="Y86" s="15">
+        <v>0</v>
       </c>
       <c r="Z86" s="15">
         <v>0</v>
@@ -11894,10 +11894,10 @@
         <v>0</v>
       </c>
       <c r="AF86" s="15">
-        <v>0</v>
+        <v>-25803</v>
       </c>
       <c r="AG86" s="15">
-        <v>-25803</v>
+        <v>0</v>
       </c>
       <c r="AH86" s="15">
         <v>0</v>
@@ -11939,10 +11939,10 @@
         <v>0</v>
       </c>
       <c r="AU86" s="15">
-        <v>0</v>
+        <v>-135</v>
       </c>
       <c r="AV86" s="15">
-        <v>-135</v>
+        <v>0</v>
       </c>
       <c r="AW86" s="15">
         <v>0</v>
@@ -11951,16 +11951,16 @@
         <v>0</v>
       </c>
       <c r="AY86" s="15">
-        <v>0</v>
+        <v>-66</v>
       </c>
       <c r="AZ86" s="15">
-        <v>-66</v>
+        <v>0</v>
       </c>
       <c r="BA86" s="15">
         <v>0</v>
       </c>
       <c r="BB86" s="15">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -12088,8 +12088,8 @@
       <c r="X88" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y88" s="11" t="s">
-        <v>57</v>
+      <c r="Y88" s="11">
+        <v>0</v>
       </c>
       <c r="Z88" s="11">
         <v>0</v>
@@ -12152,31 +12152,31 @@
         <v>0</v>
       </c>
       <c r="AT88" s="11">
-        <v>0</v>
+        <v>-31532</v>
       </c>
       <c r="AU88" s="11">
-        <v>-31532</v>
+        <v>-20328</v>
       </c>
       <c r="AV88" s="11">
-        <v>-20328</v>
+        <v>-3720</v>
       </c>
       <c r="AW88" s="11">
-        <v>-3720</v>
+        <v>-6198</v>
       </c>
       <c r="AX88" s="11">
-        <v>-6198</v>
+        <v>-30208</v>
       </c>
       <c r="AY88" s="11">
-        <v>-30208</v>
+        <v>-1869</v>
       </c>
       <c r="AZ88" s="11">
-        <v>-1869</v>
+        <v>0</v>
       </c>
       <c r="BA88" s="11">
-        <v>0</v>
+        <v>-588</v>
       </c>
       <c r="BB88" s="11">
-        <v>-588</v>
+        <v>-6857</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -12186,154 +12186,154 @@
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
       <c r="E89" s="17">
-        <v>334011</v>
+        <v>366664</v>
       </c>
       <c r="F89" s="17">
-        <v>366664</v>
+        <v>412034</v>
       </c>
       <c r="G89" s="17">
-        <v>412034</v>
+        <v>364754</v>
       </c>
       <c r="H89" s="17">
-        <v>364754</v>
+        <v>441195</v>
       </c>
       <c r="I89" s="17">
-        <v>441195</v>
+        <v>138045</v>
       </c>
       <c r="J89" s="17">
-        <v>138045</v>
+        <v>341886</v>
       </c>
       <c r="K89" s="17">
-        <v>341886</v>
+        <v>433233</v>
       </c>
       <c r="L89" s="17">
-        <v>433233</v>
+        <v>457754</v>
       </c>
       <c r="M89" s="17">
-        <v>457754</v>
+        <v>510684</v>
       </c>
       <c r="N89" s="17">
-        <v>510684</v>
+        <v>615799</v>
       </c>
       <c r="O89" s="17">
-        <v>615799</v>
+        <v>743084</v>
       </c>
       <c r="P89" s="17">
-        <v>743084</v>
+        <v>712340</v>
       </c>
       <c r="Q89" s="17">
-        <v>712340</v>
+        <v>734562</v>
       </c>
       <c r="R89" s="17">
-        <v>734562</v>
+        <v>756182</v>
       </c>
       <c r="S89" s="17">
-        <v>756182</v>
+        <v>803007</v>
       </c>
       <c r="T89" s="17">
-        <v>803007</v>
+        <v>812292</v>
       </c>
       <c r="U89" s="17">
-        <v>812292</v>
+        <v>225481</v>
       </c>
       <c r="V89" s="17">
-        <v>225481</v>
+        <v>650938</v>
       </c>
       <c r="W89" s="17">
-        <v>650938</v>
+        <v>703018</v>
       </c>
       <c r="X89" s="17">
-        <v>703018</v>
+        <v>711640</v>
       </c>
       <c r="Y89" s="17">
-        <v>711640</v>
+        <v>713428</v>
       </c>
       <c r="Z89" s="17">
-        <v>713428</v>
+        <v>611909</v>
       </c>
       <c r="AA89" s="17">
-        <v>611909</v>
+        <v>622572</v>
       </c>
       <c r="AB89" s="17">
-        <v>622572</v>
+        <v>750887</v>
       </c>
       <c r="AC89" s="17">
-        <v>750887</v>
+        <v>521273</v>
       </c>
       <c r="AD89" s="17">
-        <v>521273</v>
+        <v>502230</v>
       </c>
       <c r="AE89" s="17">
-        <v>502230</v>
+        <v>411131</v>
       </c>
       <c r="AF89" s="17">
-        <v>411131</v>
+        <v>203018</v>
       </c>
       <c r="AG89" s="17">
-        <v>203018</v>
+        <v>139729</v>
       </c>
       <c r="AH89" s="17">
-        <v>139729</v>
+        <v>350204</v>
       </c>
       <c r="AI89" s="17">
-        <v>350204</v>
+        <v>502862</v>
       </c>
       <c r="AJ89" s="17">
-        <v>502862</v>
+        <v>401987</v>
       </c>
       <c r="AK89" s="17">
-        <v>401987</v>
+        <v>444994</v>
       </c>
       <c r="AL89" s="17">
-        <v>444994</v>
+        <v>520089</v>
       </c>
       <c r="AM89" s="17">
-        <v>520089</v>
+        <v>683753</v>
       </c>
       <c r="AN89" s="17">
-        <v>683753</v>
+        <v>580868</v>
       </c>
       <c r="AO89" s="17">
-        <v>580868</v>
+        <v>709012</v>
       </c>
       <c r="AP89" s="17">
-        <v>709012</v>
+        <v>742564</v>
       </c>
       <c r="AQ89" s="17">
-        <v>742564</v>
+        <v>800666</v>
       </c>
       <c r="AR89" s="17">
-        <v>800666</v>
+        <v>163403</v>
       </c>
       <c r="AS89" s="17">
         <v>163403</v>
       </c>
       <c r="AT89" s="17">
-        <v>163403</v>
+        <v>692091</v>
       </c>
       <c r="AU89" s="17">
-        <v>692091</v>
+        <v>553634</v>
       </c>
       <c r="AV89" s="17">
-        <v>553634</v>
+        <v>673833</v>
       </c>
       <c r="AW89" s="17">
-        <v>673833</v>
+        <v>730928</v>
       </c>
       <c r="AX89" s="17">
-        <v>730928</v>
+        <v>794813</v>
       </c>
       <c r="AY89" s="17">
-        <v>794813</v>
+        <v>1010890</v>
       </c>
       <c r="AZ89" s="17">
-        <v>1010890</v>
+        <v>1335246</v>
       </c>
       <c r="BA89" s="17">
-        <v>1335246</v>
+        <v>2417586</v>
       </c>
       <c r="BB89" s="17">
-        <v>2417586</v>
+        <v>2592818</v>
       </c>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.3">
@@ -12791,16 +12791,16 @@
         <v>0</v>
       </c>
       <c r="I96" s="11">
-        <v>0</v>
-      </c>
-      <c r="J96" s="11">
         <v>76927536</v>
       </c>
+      <c r="J96" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="K96" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L96" s="11" t="s">
-        <v>57</v>
+      <c r="L96" s="11">
+        <v>0</v>
       </c>
       <c r="M96" s="11">
         <v>0</v>
@@ -12829,8 +12829,8 @@
       <c r="U96" s="11">
         <v>0</v>
       </c>
-      <c r="V96" s="11">
-        <v>0</v>
+      <c r="V96" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W96" s="11" t="s">
         <v>57</v>
@@ -12938,154 +12938,154 @@
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="13">
-        <v>3601724</v>
+        <v>3441702</v>
       </c>
       <c r="F97" s="13">
-        <v>3441702</v>
+        <v>3566518</v>
       </c>
       <c r="G97" s="13">
-        <v>3566518</v>
+        <v>3712213</v>
       </c>
       <c r="H97" s="13">
-        <v>3712213</v>
+        <v>3743650</v>
       </c>
       <c r="I97" s="13">
-        <v>3743650</v>
+        <v>4010544</v>
       </c>
       <c r="J97" s="13">
-        <v>4010544</v>
+        <v>3427802</v>
       </c>
       <c r="K97" s="13">
-        <v>3427802</v>
+        <v>4818728</v>
       </c>
       <c r="L97" s="13">
-        <v>4818728</v>
+        <v>4102610</v>
       </c>
       <c r="M97" s="13">
-        <v>4102610</v>
+        <v>3643649</v>
       </c>
       <c r="N97" s="13">
-        <v>3643649</v>
+        <v>4046134</v>
       </c>
       <c r="O97" s="13">
-        <v>4046134</v>
+        <v>4422466</v>
       </c>
       <c r="P97" s="13">
-        <v>4422466</v>
+        <v>3991575</v>
       </c>
       <c r="Q97" s="13">
-        <v>3991575</v>
+        <v>3511543</v>
       </c>
       <c r="R97" s="13">
-        <v>3511543</v>
+        <v>4450407</v>
       </c>
       <c r="S97" s="13">
-        <v>4450407</v>
+        <v>4449628</v>
       </c>
       <c r="T97" s="13">
-        <v>4449628</v>
+        <v>4460761</v>
       </c>
       <c r="U97" s="13">
-        <v>4460761</v>
+        <v>2885489</v>
       </c>
       <c r="V97" s="13">
-        <v>2885489</v>
+        <v>3867974</v>
       </c>
       <c r="W97" s="13">
-        <v>3867974</v>
+        <v>4652616</v>
       </c>
       <c r="X97" s="13">
-        <v>4652616</v>
+        <v>3284542</v>
       </c>
       <c r="Y97" s="13">
-        <v>3284542</v>
+        <v>3791999</v>
       </c>
       <c r="Z97" s="13">
-        <v>3791999</v>
+        <v>4180380</v>
       </c>
       <c r="AA97" s="13">
-        <v>4180380</v>
+        <v>3701898</v>
       </c>
       <c r="AB97" s="13">
-        <v>3701898</v>
+        <v>6213545</v>
       </c>
       <c r="AC97" s="13">
-        <v>6213545</v>
+        <v>4655814</v>
       </c>
       <c r="AD97" s="13">
-        <v>4655814</v>
+        <v>4102959</v>
       </c>
       <c r="AE97" s="13">
-        <v>4102959</v>
+        <v>6270683</v>
       </c>
       <c r="AF97" s="13">
-        <v>6270683</v>
+        <v>9429936</v>
       </c>
       <c r="AG97" s="13">
-        <v>9429936</v>
+        <v>7573864</v>
       </c>
       <c r="AH97" s="13">
-        <v>7573864</v>
+        <v>4419540</v>
       </c>
       <c r="AI97" s="13">
-        <v>4419540</v>
+        <v>5293286</v>
       </c>
       <c r="AJ97" s="13">
-        <v>5293286</v>
+        <v>4212088</v>
       </c>
       <c r="AK97" s="13">
-        <v>4212088</v>
+        <v>3991219</v>
       </c>
       <c r="AL97" s="13">
-        <v>3991219</v>
+        <v>4494957</v>
       </c>
       <c r="AM97" s="13">
-        <v>4494957</v>
+        <v>4694307</v>
       </c>
       <c r="AN97" s="13">
-        <v>4694307</v>
+        <v>3401260</v>
       </c>
       <c r="AO97" s="13">
-        <v>3401260</v>
+        <v>6093519</v>
       </c>
       <c r="AP97" s="13">
-        <v>6093519</v>
+        <v>5200629</v>
       </c>
       <c r="AQ97" s="13">
-        <v>5200629</v>
+        <v>6022166</v>
       </c>
       <c r="AR97" s="13">
-        <v>6022166</v>
+        <v>5937741</v>
       </c>
       <c r="AS97" s="13">
         <v>5937741</v>
       </c>
       <c r="AT97" s="13">
-        <v>5937741</v>
+        <v>6403696</v>
       </c>
       <c r="AU97" s="13">
-        <v>6403696</v>
+        <v>7683033</v>
       </c>
       <c r="AV97" s="13">
-        <v>7683033</v>
+        <v>6570797</v>
       </c>
       <c r="AW97" s="13">
-        <v>6570797</v>
+        <v>10165955</v>
       </c>
       <c r="AX97" s="13">
-        <v>10165955</v>
+        <v>16904571</v>
       </c>
       <c r="AY97" s="13">
-        <v>16904571</v>
+        <v>14956774</v>
       </c>
       <c r="AZ97" s="13">
-        <v>14956774</v>
+        <v>20459496</v>
       </c>
       <c r="BA97" s="13">
-        <v>20459496</v>
+        <v>22621304</v>
       </c>
       <c r="BB97" s="13">
-        <v>22621304</v>
+        <v>26375547</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.3">
@@ -13097,130 +13097,130 @@
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
-        <v>2519019</v>
+        <v>2651236</v>
       </c>
       <c r="F98" s="11">
-        <v>2651236</v>
+        <v>2724011</v>
       </c>
       <c r="G98" s="11">
-        <v>2724011</v>
+        <v>2881712</v>
       </c>
       <c r="H98" s="11">
-        <v>2881712</v>
+        <v>2624054</v>
       </c>
       <c r="I98" s="11">
-        <v>2624054</v>
+        <v>2486843</v>
       </c>
       <c r="J98" s="11">
-        <v>2486843</v>
+        <v>2712285</v>
       </c>
       <c r="K98" s="11">
-        <v>2712285</v>
+        <v>2931399</v>
       </c>
       <c r="L98" s="11">
-        <v>2931399</v>
+        <v>3140029</v>
       </c>
       <c r="M98" s="11">
-        <v>3140029</v>
+        <v>3247724</v>
       </c>
       <c r="N98" s="11">
-        <v>3247724</v>
+        <v>3425478</v>
       </c>
       <c r="O98" s="11">
-        <v>3425478</v>
+        <v>3046768</v>
       </c>
       <c r="P98" s="11">
-        <v>3046768</v>
+        <v>3172445</v>
       </c>
       <c r="Q98" s="11">
-        <v>3172445</v>
+        <v>3531102</v>
       </c>
       <c r="R98" s="11">
-        <v>3531102</v>
+        <v>3370175</v>
       </c>
       <c r="S98" s="11">
-        <v>3370175</v>
+        <v>3256182</v>
       </c>
       <c r="T98" s="11">
-        <v>3256182</v>
+        <v>3730144</v>
       </c>
       <c r="U98" s="11">
-        <v>3730144</v>
+        <v>2159006</v>
       </c>
       <c r="V98" s="11">
-        <v>2159006</v>
+        <v>3454829</v>
       </c>
       <c r="W98" s="11">
-        <v>3454829</v>
+        <v>3155368</v>
       </c>
       <c r="X98" s="11">
-        <v>3155368</v>
+        <v>3166315</v>
       </c>
       <c r="Y98" s="11">
-        <v>3166315</v>
+        <v>3452616</v>
       </c>
       <c r="Z98" s="11">
-        <v>3452616</v>
+        <v>3366325</v>
       </c>
       <c r="AA98" s="11">
-        <v>3366325</v>
+        <v>3862087</v>
       </c>
       <c r="AB98" s="11">
-        <v>3862087</v>
+        <v>4150804</v>
       </c>
       <c r="AC98" s="11">
-        <v>4150804</v>
+        <v>4351203</v>
       </c>
       <c r="AD98" s="11">
-        <v>4351203</v>
+        <v>4500902</v>
       </c>
       <c r="AE98" s="11">
-        <v>4500902</v>
+        <v>4200818</v>
       </c>
       <c r="AF98" s="11">
-        <v>4200818</v>
+        <v>4244823</v>
       </c>
       <c r="AG98" s="11">
-        <v>4244823</v>
+        <v>3583480</v>
       </c>
       <c r="AH98" s="11">
-        <v>3583480</v>
+        <v>4423514</v>
       </c>
       <c r="AI98" s="11">
-        <v>4423514</v>
+        <v>4319815</v>
       </c>
       <c r="AJ98" s="11">
-        <v>4319815</v>
+        <v>3664167</v>
       </c>
       <c r="AK98" s="11">
-        <v>3664167</v>
+        <v>3838401</v>
       </c>
       <c r="AL98" s="11">
-        <v>3838401</v>
+        <v>5468902</v>
       </c>
       <c r="AM98" s="11">
-        <v>5468902</v>
+        <v>5341878</v>
       </c>
       <c r="AN98" s="11">
-        <v>5341878</v>
+        <v>4885379</v>
       </c>
       <c r="AO98" s="11">
-        <v>4885379</v>
+        <v>5183938</v>
       </c>
       <c r="AP98" s="11">
-        <v>5183938</v>
+        <v>5477720</v>
       </c>
       <c r="AQ98" s="11">
-        <v>5477720</v>
+        <v>5450748</v>
       </c>
       <c r="AR98" s="11">
-        <v>5450748</v>
+        <v>7589906</v>
       </c>
       <c r="AS98" s="11">
         <v>7589906</v>
       </c>
-      <c r="AT98" s="11">
-        <v>7589906</v>
+      <c r="AT98" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU98" s="11" t="s">
         <v>57</v>
@@ -13256,154 +13256,154 @@
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13">
-        <v>39518837</v>
+        <v>43183424</v>
       </c>
       <c r="F99" s="13">
-        <v>43183424</v>
+        <v>44537313</v>
       </c>
       <c r="G99" s="13">
-        <v>44537313</v>
+        <v>46703920</v>
       </c>
       <c r="H99" s="13">
-        <v>46703920</v>
+        <v>48002138</v>
       </c>
       <c r="I99" s="13">
-        <v>48002138</v>
+        <v>40358025</v>
       </c>
       <c r="J99" s="13">
-        <v>40358025</v>
+        <v>42091090</v>
       </c>
       <c r="K99" s="13">
-        <v>42091090</v>
+        <v>46565350</v>
       </c>
       <c r="L99" s="13">
-        <v>46565350</v>
+        <v>51860191</v>
       </c>
       <c r="M99" s="13">
-        <v>51860191</v>
+        <v>57779801</v>
       </c>
       <c r="N99" s="13">
-        <v>57779801</v>
+        <v>65106108</v>
       </c>
       <c r="O99" s="13">
-        <v>65106108</v>
+        <v>61239427</v>
       </c>
       <c r="P99" s="13">
-        <v>61239427</v>
+        <v>56088869</v>
       </c>
       <c r="Q99" s="13">
-        <v>56088869</v>
+        <v>54221977</v>
       </c>
       <c r="R99" s="13">
-        <v>54221977</v>
+        <v>58056567</v>
       </c>
       <c r="S99" s="13">
-        <v>58056567</v>
+        <v>53038099</v>
       </c>
       <c r="T99" s="13">
-        <v>53038099</v>
+        <v>59717056</v>
       </c>
       <c r="U99" s="13">
-        <v>59717056</v>
+        <v>60907446</v>
       </c>
       <c r="V99" s="13">
-        <v>60907446</v>
+        <v>56501404</v>
       </c>
       <c r="W99" s="13">
-        <v>56501404</v>
+        <v>57828467</v>
       </c>
       <c r="X99" s="13">
-        <v>57828467</v>
+        <v>54522092</v>
       </c>
       <c r="Y99" s="13">
-        <v>54522092</v>
+        <v>58069685</v>
       </c>
       <c r="Z99" s="13">
-        <v>58069685</v>
+        <v>56088486</v>
       </c>
       <c r="AA99" s="13">
-        <v>56088486</v>
+        <v>58972507</v>
       </c>
       <c r="AB99" s="13">
-        <v>58972507</v>
+        <v>59094808</v>
       </c>
       <c r="AC99" s="13">
-        <v>59094808</v>
+        <v>58332071</v>
       </c>
       <c r="AD99" s="13">
-        <v>58332071</v>
+        <v>68345566</v>
       </c>
       <c r="AE99" s="13">
-        <v>68345566</v>
+        <v>82166667</v>
       </c>
       <c r="AF99" s="13">
-        <v>82166667</v>
+        <v>56000000</v>
       </c>
       <c r="AG99" s="13">
-        <v>56000000</v>
+        <v>79750000</v>
       </c>
       <c r="AH99" s="13">
-        <v>79750000</v>
+        <v>71294118</v>
       </c>
       <c r="AI99" s="13">
-        <v>71294118</v>
+        <v>75782554</v>
       </c>
       <c r="AJ99" s="13">
-        <v>75782554</v>
+        <v>66078740</v>
       </c>
       <c r="AK99" s="13">
-        <v>66078740</v>
+        <v>63168675</v>
       </c>
       <c r="AL99" s="13">
-        <v>63168675</v>
+        <v>69197425</v>
       </c>
       <c r="AM99" s="13">
-        <v>69197425</v>
+        <v>123990148</v>
       </c>
       <c r="AN99" s="13">
-        <v>123990148</v>
+        <v>48946154</v>
       </c>
       <c r="AO99" s="13">
-        <v>48946154</v>
+        <v>73886978</v>
       </c>
       <c r="AP99" s="13">
-        <v>73886978</v>
+        <v>89717342</v>
       </c>
       <c r="AQ99" s="13">
-        <v>89717342</v>
+        <v>69271529</v>
       </c>
       <c r="AR99" s="13">
-        <v>69271529</v>
+        <v>77830870</v>
       </c>
       <c r="AS99" s="13">
         <v>77830870</v>
       </c>
       <c r="AT99" s="13">
-        <v>77830870</v>
+        <v>89071050</v>
       </c>
       <c r="AU99" s="13">
-        <v>89071050</v>
+        <v>81118470</v>
       </c>
       <c r="AV99" s="13">
-        <v>81118470</v>
+        <v>93459441</v>
       </c>
       <c r="AW99" s="13">
-        <v>93459441</v>
+        <v>123994912</v>
       </c>
       <c r="AX99" s="13">
-        <v>123994912</v>
+        <v>192098117</v>
       </c>
       <c r="AY99" s="13">
-        <v>192098117</v>
+        <v>205777705</v>
       </c>
       <c r="AZ99" s="13">
-        <v>205777705</v>
+        <v>173409804</v>
       </c>
       <c r="BA99" s="13">
-        <v>173409804</v>
+        <v>230886747</v>
       </c>
       <c r="BB99" s="13">
-        <v>230886747</v>
+        <v>233816844</v>
       </c>
     </row>
     <row r="100" spans="2:54" x14ac:dyDescent="0.3">
@@ -13456,17 +13456,17 @@
       <c r="R100" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="S100" s="11" t="s">
-        <v>57</v>
+      <c r="S100" s="11">
+        <v>24998088</v>
       </c>
       <c r="T100" s="11">
-        <v>24998088</v>
+        <v>410220</v>
       </c>
       <c r="U100" s="11">
-        <v>410220</v>
-      </c>
-      <c r="V100" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V100" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W100" s="11" t="s">
         <v>57</v>
@@ -13696,32 +13696,32 @@
       <c r="AS101" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT101" s="13" t="s">
-        <v>57</v>
+      <c r="AT101" s="13">
+        <v>6080650</v>
       </c>
       <c r="AU101" s="13">
-        <v>6080650</v>
+        <v>5795720</v>
       </c>
       <c r="AV101" s="13">
-        <v>5795720</v>
+        <v>6820104</v>
       </c>
       <c r="AW101" s="13">
-        <v>6820104</v>
+        <v>7559375</v>
       </c>
       <c r="AX101" s="13">
-        <v>7559375</v>
+        <v>23938890</v>
       </c>
       <c r="AY101" s="13">
-        <v>23938890</v>
+        <v>19241334</v>
       </c>
       <c r="AZ101" s="13">
-        <v>19241334</v>
+        <v>14511404</v>
       </c>
       <c r="BA101" s="13">
-        <v>14511404</v>
+        <v>15277529</v>
       </c>
       <c r="BB101" s="13">
-        <v>15277529</v>
+        <v>15089129</v>
       </c>
     </row>
     <row r="102" spans="2:54" x14ac:dyDescent="0.3">
@@ -13912,17 +13912,17 @@
       <c r="AS103" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT103" s="11" t="s">
-        <v>57</v>
+      <c r="AT103" s="11">
+        <v>0</v>
       </c>
       <c r="AU103" s="11">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="AV103" s="11">
-        <v>10000</v>
+        <v>-10000</v>
       </c>
       <c r="AW103" s="11">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="AX103" s="11">
         <v>0</v>
@@ -14044,14 +14044,14 @@
       <c r="AJ104" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK104" s="13" t="s">
-        <v>57</v>
+      <c r="AK104" s="13">
+        <v>0</v>
       </c>
       <c r="AL104" s="13">
         <v>0</v>
       </c>
-      <c r="AM104" s="13">
-        <v>0</v>
+      <c r="AM104" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN104" s="13" t="s">
         <v>57</v>
@@ -14104,7 +14104,7 @@
         <v>63</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11" t="s">
@@ -14185,8 +14185,8 @@
       <c r="AD105" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE105" s="11" t="s">
-        <v>57</v>
+      <c r="AE105" s="11">
+        <v>0</v>
       </c>
       <c r="AF105" s="11">
         <v>0</v>
@@ -14194,8 +14194,8 @@
       <c r="AG105" s="11">
         <v>0</v>
       </c>
-      <c r="AH105" s="11">
-        <v>0</v>
+      <c r="AH105" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI105" s="11" t="s">
         <v>57</v>
@@ -14233,11 +14233,11 @@
       <c r="AT105" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU105" s="11" t="s">
-        <v>57</v>
+      <c r="AU105" s="11">
+        <v>800000</v>
       </c>
       <c r="AV105" s="11">
-        <v>800000</v>
+        <v>0</v>
       </c>
       <c r="AW105" s="11">
         <v>0</v>
@@ -14255,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="BB105" s="11">
-        <v>0</v>
+        <v>1700000</v>
       </c>
     </row>
     <row r="106" spans="2:54" x14ac:dyDescent="0.3">
@@ -14326,26 +14326,26 @@
       <c r="X106" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y106" s="13" t="s">
-        <v>57</v>
+      <c r="Y106" s="13">
+        <v>649957</v>
       </c>
       <c r="Z106" s="13">
-        <v>649957</v>
+        <v>617766</v>
       </c>
       <c r="AA106" s="13">
-        <v>617766</v>
+        <v>650029</v>
       </c>
       <c r="AB106" s="13">
         <v>650029</v>
       </c>
       <c r="AC106" s="13">
-        <v>650029</v>
+        <v>649598</v>
       </c>
       <c r="AD106" s="13">
-        <v>649598</v>
+        <v>649799</v>
       </c>
       <c r="AE106" s="13">
-        <v>649799</v>
+        <v>0</v>
       </c>
       <c r="AF106" s="13">
         <v>0</v>
@@ -14353,8 +14353,8 @@
       <c r="AG106" s="13">
         <v>0</v>
       </c>
-      <c r="AH106" s="13">
-        <v>0</v>
+      <c r="AH106" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI106" s="13" t="s">
         <v>57</v>
@@ -14368,8 +14368,8 @@
       <c r="AL106" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM106" s="13" t="s">
-        <v>57</v>
+      <c r="AM106" s="13">
+        <v>0</v>
       </c>
       <c r="AN106" s="13">
         <v>0</v>
@@ -14389,8 +14389,8 @@
       <c r="AS106" s="13">
         <v>0</v>
       </c>
-      <c r="AT106" s="13">
-        <v>0</v>
+      <c r="AT106" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU106" s="13" t="s">
         <v>57</v>
@@ -14491,11 +14491,11 @@
       <c r="Z107" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AA107" s="11" t="s">
-        <v>57</v>
+      <c r="AA107" s="11">
+        <v>10910180</v>
       </c>
       <c r="AB107" s="11">
-        <v>10910180</v>
+        <v>0</v>
       </c>
       <c r="AC107" s="11">
         <v>0</v>
@@ -14512,8 +14512,8 @@
       <c r="AG107" s="11">
         <v>0</v>
       </c>
-      <c r="AH107" s="11">
-        <v>0</v>
+      <c r="AH107" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI107" s="11" t="s">
         <v>57</v>
@@ -14527,8 +14527,8 @@
       <c r="AL107" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM107" s="11" t="s">
-        <v>57</v>
+      <c r="AM107" s="11">
+        <v>0</v>
       </c>
       <c r="AN107" s="11">
         <v>0</v>
@@ -14548,8 +14548,8 @@
       <c r="AS107" s="11">
         <v>0</v>
       </c>
-      <c r="AT107" s="11">
-        <v>0</v>
+      <c r="AT107" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU107" s="11" t="s">
         <v>57</v>
@@ -14653,11 +14653,11 @@
       <c r="AA108" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB108" s="13" t="s">
-        <v>57</v>
+      <c r="AB108" s="13">
+        <v>600000</v>
       </c>
       <c r="AC108" s="13">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="AD108" s="13">
         <v>0</v>
@@ -14671,8 +14671,8 @@
       <c r="AG108" s="13">
         <v>0</v>
       </c>
-      <c r="AH108" s="13">
-        <v>0</v>
+      <c r="AH108" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI108" s="13" t="s">
         <v>57</v>
@@ -14689,8 +14689,8 @@
       <c r="AM108" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN108" s="13" t="s">
-        <v>57</v>
+      <c r="AN108" s="13">
+        <v>0</v>
       </c>
       <c r="AO108" s="13">
         <v>0</v>
@@ -14707,8 +14707,8 @@
       <c r="AS108" s="13">
         <v>0</v>
       </c>
-      <c r="AT108" s="13">
-        <v>0</v>
+      <c r="AT108" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU108" s="13" t="s">
         <v>57</v>
